--- a/Outputs/5. Budget constrained/Grid Search/Output Files/1750000/Output_9_11.xlsx
+++ b/Outputs/5. Budget constrained/Grid Search/Output Files/1750000/Output_9_11.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-829471.6548561588</v>
+        <v>-832171.5469773825</v>
       </c>
     </row>
     <row r="7">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>603248.4937673432</v>
+        <v>603248.493767343</v>
       </c>
     </row>
     <row r="9">
@@ -541,7 +541,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>13778539.18072491</v>
+        <v>13778539.1807249</v>
       </c>
     </row>
     <row r="11">
@@ -656,10 +656,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>382.7338416634806</v>
+        <v>160.466875587353</v>
       </c>
       <c r="C2" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
         <v>0</v>
@@ -668,16 +668,16 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
-        <v>6.876045741711437</v>
+        <v>252.268016710981</v>
       </c>
       <c r="G2" t="n">
-        <v>12.28773869504417</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>308.5974454495113</v>
       </c>
       <c r="I2" t="n">
-        <v>94.24014755885203</v>
+        <v>94.24014755885155</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -707,25 +707,25 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>140.315783973424</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>209.8976922291835</v>
       </c>
       <c r="U2" t="n">
-        <v>222.74561834161</v>
+        <v>251.1044530022292</v>
       </c>
       <c r="V2" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="3">
@@ -753,10 +753,10 @@
         <v>135.7303505775365</v>
       </c>
       <c r="H3" t="n">
-        <v>96.65565115906503</v>
+        <v>96.65565115906496</v>
       </c>
       <c r="I3" t="n">
-        <v>33.85559031833751</v>
+        <v>33.85559031833728</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -786,7 +786,7 @@
         <v>0</v>
       </c>
       <c r="S3" t="n">
-        <v>141.7193093041457</v>
+        <v>141.7193093041456</v>
       </c>
       <c r="T3" t="n">
         <v>193.6625353078282</v>
@@ -814,10 +814,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>23.4858935656449</v>
+        <v>60.10129804361812</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
@@ -865,10 +865,10 @@
         <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>200.4475243713015</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>222.1670476323163</v>
       </c>
       <c r="U4" t="n">
         <v>286.245260737819</v>
@@ -877,13 +877,13 @@
         <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -896,13 +896,13 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>19.47164658254017</v>
       </c>
       <c r="F5" t="n">
         <v>6.876045741711437</v>
@@ -947,7 +947,7 @@
         <v>122.935408774453</v>
       </c>
       <c r="T5" t="n">
-        <v>206.5589059457607</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
         <v>251.0434357771752</v>
@@ -956,13 +956,13 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
-        <v>146.630735372417</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -1051,19 +1051,19 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>179.8319801819373</v>
+        <v>133.5635296215484</v>
       </c>
       <c r="C7" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
         <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
         <v>0</v>
@@ -1099,10 +1099,10 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>40.17116857830309</v>
+        <v>101.1001486205444</v>
       </c>
       <c r="S7" t="n">
-        <v>0</v>
+        <v>194.4851693340911</v>
       </c>
       <c r="T7" t="n">
         <v>220.7052287134384</v>
@@ -1111,7 +1111,7 @@
         <v>286.2265992197056</v>
       </c>
       <c r="V7" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
         <v>286.522998336591</v>
@@ -1133,25 +1133,25 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>161.0485789588444</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
         <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>406.8760457417114</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G8" t="n">
         <v>411.5250233818693</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>300.7862872484598</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>64.83556544767967</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1184,7 +1184,7 @@
         <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>206.5589059457607</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
         <v>251.0434357771752</v>
@@ -1193,10 +1193,10 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>63.33451364137707</v>
       </c>
       <c r="Y8" t="n">
         <v>0</v>
@@ -1288,25 +1288,25 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C10" t="n">
         <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
         <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
         <v>166.2964268507295</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>147.161060211447</v>
       </c>
       <c r="I10" t="n">
         <v>104.4906595130011</v>
@@ -1336,7 +1336,7 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>101.1001486205444</v>
       </c>
       <c r="S10" t="n">
         <v>0</v>
@@ -1345,19 +1345,19 @@
         <v>220.7052287134384</v>
       </c>
       <c r="U10" t="n">
-        <v>220.6315667450102</v>
+        <v>286.2265992197056</v>
       </c>
       <c r="V10" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X10" t="n">
         <v>0</v>
       </c>
       <c r="Y10" t="n">
-        <v>0</v>
+        <v>155.6931622071227</v>
       </c>
     </row>
     <row r="11">
@@ -1418,7 +1418,7 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T11" t="n">
         <v>199.0222304576161</v>
@@ -1525,13 +1525,13 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
-        <v>148.6154730182124</v>
+        <v>117.4765410832877</v>
       </c>
       <c r="E13" t="n">
         <v>0</v>
@@ -1543,7 +1543,7 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H13" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
         <v>0</v>
@@ -1573,10 +1573,10 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T13" t="n">
         <v>217.4054503272883</v>
@@ -1591,7 +1591,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X13" t="n">
-        <v>55.47031642759653</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y13" t="n">
         <v>218.5846533520948</v>
@@ -1655,13 +1655,13 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T14" t="n">
         <v>199.0222304576161</v>
       </c>
       <c r="U14" t="n">
-        <v>250.9057009881286</v>
+        <v>250.9057009881284</v>
       </c>
       <c r="V14" t="n">
         <v>327.7522584701349</v>
@@ -1768,7 +1768,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
         <v>0</v>
@@ -1777,13 +1777,13 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>165.5241382922688</v>
+        <v>165.5241382922697</v>
       </c>
       <c r="H16" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I16" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1810,7 +1810,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>66.37524671012166</v>
+        <v>4.974488840437838</v>
       </c>
       <c r="S16" t="n">
         <v>181.0262860016446</v>
@@ -1819,7 +1819,7 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U16" t="n">
-        <v>147.6895341487369</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V16" t="n">
         <v>252.137643323828</v>
@@ -1828,7 +1828,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X16" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y16" t="n">
         <v>218.5846533520948</v>
@@ -1892,7 +1892,7 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T17" t="n">
         <v>199.0222304576161</v>
@@ -2002,7 +2002,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D19" t="n">
         <v>148.6154730182124</v>
@@ -2011,10 +2011,10 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
-        <v>19.91555826189102</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H19" t="n">
         <v>0</v>
@@ -2047,7 +2047,7 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S19" t="n">
         <v>181.0262860016446</v>
@@ -2062,7 +2062,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W19" t="n">
-        <v>286.522998336591</v>
+        <v>96.36494467178768</v>
       </c>
       <c r="X19" t="n">
         <v>225.7096553890372</v>
@@ -2078,7 +2078,7 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>382.7338416634803</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C20" t="n">
         <v>365.2728917710076</v>
@@ -2147,7 +2147,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y20" t="n">
-        <v>386.2379386560536</v>
+        <v>386.2379386560527</v>
       </c>
     </row>
     <row r="21">
@@ -2236,7 +2236,7 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>136.5667167289874</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
         <v>167.2468210986278</v>
@@ -2245,13 +2245,13 @@
         <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>146.4339626465692</v>
+        <v>83.06560892428168</v>
       </c>
       <c r="F22" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H22" t="n">
         <v>0</v>
@@ -2476,25 +2476,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C25" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>165.5241382922688</v>
+        <v>99.97427419833815</v>
       </c>
       <c r="H25" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2521,7 +2521,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S25" t="n">
         <v>181.0262860016446</v>
@@ -2530,7 +2530,7 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U25" t="n">
-        <v>86.26216629270428</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V25" t="n">
         <v>252.137643323828</v>
@@ -2716,22 +2716,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
-        <v>148.6154730182124</v>
+        <v>102.1557845699813</v>
       </c>
       <c r="E28" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2761,13 +2761,13 @@
         <v>66.37524671012169</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T28" t="n">
         <v>217.4054503272883</v>
       </c>
       <c r="U28" t="n">
-        <v>113.9549918517058</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V28" t="n">
         <v>252.137643323828</v>
@@ -2776,7 +2776,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X28" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y28" t="n">
         <v>218.5846533520948</v>
@@ -2855,7 +2855,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X29" t="n">
-        <v>369.7311006784686</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y29" t="n">
         <v>386.2379386560536</v>
@@ -2950,22 +2950,22 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C31" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
-        <v>36.74735985927992</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>140.2947128462239</v>
+        <v>99.97427419833815</v>
       </c>
       <c r="I31" t="n">
         <v>0</v>
@@ -3016,7 +3016,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y31" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="32">
@@ -3080,7 +3080,7 @@
         <v>83.7025149569553</v>
       </c>
       <c r="T32" t="n">
-        <v>199.0222304576164</v>
+        <v>199.0222304576161</v>
       </c>
       <c r="U32" t="n">
         <v>250.9057009881286</v>
@@ -3187,10 +3187,10 @@
         <v>155.5473326898976</v>
       </c>
       <c r="C34" t="n">
-        <v>142.9621736065884</v>
+        <v>142.9621736065881</v>
       </c>
       <c r="D34" t="n">
-        <v>124.3308255261727</v>
+        <v>124.3308255261726</v>
       </c>
       <c r="E34" t="n">
         <v>122.1493151545295</v>
@@ -3205,7 +3205,7 @@
         <v>116.0100653541842</v>
       </c>
       <c r="I34" t="n">
-        <v>56.98118882652582</v>
+        <v>56.98118882652614</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3266,7 +3266,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C35" t="n">
-        <v>365.2728917710076</v>
+        <v>365.2728917710071</v>
       </c>
       <c r="D35" t="n">
         <v>354.683041620683</v>
@@ -3427,10 +3427,10 @@
         <v>142.9621736065881</v>
       </c>
       <c r="D37" t="n">
-        <v>124.3308255261727</v>
+        <v>124.3308255261726</v>
       </c>
       <c r="E37" t="n">
-        <v>122.1493151545295</v>
+        <v>122.1493151545298</v>
       </c>
       <c r="F37" t="n">
         <v>121.1364005308915</v>
@@ -3469,7 +3469,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>42.09059921808248</v>
+        <v>42.09059921808198</v>
       </c>
       <c r="S37" t="n">
         <v>156.7416385096049</v>
@@ -3518,7 +3518,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H38" t="n">
-        <v>283.1540821444132</v>
+        <v>283.1540821444137</v>
       </c>
       <c r="I38" t="n">
         <v>0</v>
@@ -3664,13 +3664,13 @@
         <v>142.9621736065881</v>
       </c>
       <c r="D40" t="n">
-        <v>124.3308255261727</v>
+        <v>124.3308255261726</v>
       </c>
       <c r="E40" t="n">
         <v>122.1493151545295</v>
       </c>
       <c r="F40" t="n">
-        <v>121.1364005308915</v>
+        <v>121.1364005308918</v>
       </c>
       <c r="G40" t="n">
         <v>141.2394908002291</v>
@@ -3679,7 +3679,7 @@
         <v>116.0100653541842</v>
       </c>
       <c r="I40" t="n">
-        <v>56.98118882652584</v>
+        <v>56.98118882652582</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3706,7 +3706,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>42.09059921808199</v>
+        <v>42.09059921808198</v>
       </c>
       <c r="S40" t="n">
         <v>156.7416385096049</v>
@@ -3806,7 +3806,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y41" t="n">
-        <v>386.2379386560536</v>
+        <v>386.2379386560531</v>
       </c>
     </row>
     <row r="42">
@@ -3898,25 +3898,25 @@
         <v>155.5473326898976</v>
       </c>
       <c r="C43" t="n">
-        <v>142.9621736065882</v>
+        <v>142.9621736065881</v>
       </c>
       <c r="D43" t="n">
-        <v>124.3308255261727</v>
+        <v>124.3308255261726</v>
       </c>
       <c r="E43" t="n">
         <v>122.1493151545295</v>
       </c>
       <c r="F43" t="n">
-        <v>121.1364005308916</v>
+        <v>121.1364005308915</v>
       </c>
       <c r="G43" t="n">
-        <v>141.2394908002292</v>
+        <v>141.2394908002291</v>
       </c>
       <c r="H43" t="n">
         <v>116.0100653541842</v>
       </c>
       <c r="I43" t="n">
-        <v>56.98118882652584</v>
+        <v>56.98118882652582</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3943,7 +3943,7 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>42.090599218082</v>
+        <v>42.09059921808198</v>
       </c>
       <c r="S43" t="n">
         <v>156.7416385096049</v>
@@ -3961,7 +3961,7 @@
         <v>262.2383508445513</v>
       </c>
       <c r="X43" t="n">
-        <v>201.4250078969975</v>
+        <v>201.4250078969974</v>
       </c>
       <c r="Y43" t="n">
         <v>194.3000058600551</v>
@@ -4304,76 +4304,76 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>921.1000511196653</v>
+        <v>1099.310946021411</v>
       </c>
       <c r="C2" t="n">
-        <v>552.1375341792535</v>
+        <v>1099.310946021411</v>
       </c>
       <c r="D2" t="n">
-        <v>552.1375341792535</v>
+        <v>1099.310946021411</v>
       </c>
       <c r="E2" t="n">
-        <v>166.3492815810093</v>
+        <v>713.5226934231671</v>
       </c>
       <c r="F2" t="n">
-        <v>159.4037808318058</v>
+        <v>458.7065149272266</v>
       </c>
       <c r="G2" t="n">
-        <v>146.9919235640844</v>
+        <v>458.7065149272266</v>
       </c>
       <c r="H2" t="n">
-        <v>146.9919235640844</v>
+        <v>146.9919235640839</v>
       </c>
       <c r="I2" t="n">
         <v>51.79985532281972</v>
       </c>
       <c r="J2" t="n">
-        <v>125.8997233870222</v>
+        <v>223.8816370013525</v>
       </c>
       <c r="K2" t="n">
-        <v>287.6947354520161</v>
+        <v>385.676649066348</v>
       </c>
       <c r="L2" t="n">
-        <v>928.7179450719102</v>
+        <v>1026.699858686242</v>
       </c>
       <c r="M2" t="n">
-        <v>1224.788511629511</v>
+        <v>1667.723068306136</v>
       </c>
       <c r="N2" t="n">
-        <v>1530.263617865094</v>
+        <v>1973.198174541721</v>
       </c>
       <c r="O2" t="n">
-        <v>2171.286827484988</v>
+        <v>2248.314393858356</v>
       </c>
       <c r="P2" t="n">
-        <v>2487.745304821932</v>
+        <v>2448.618721147459</v>
       </c>
       <c r="Q2" t="n">
-        <v>2589.992766140986</v>
+        <v>2550.866182466514</v>
       </c>
       <c r="R2" t="n">
         <v>2589.992766140986</v>
       </c>
       <c r="S2" t="n">
-        <v>2589.992766140986</v>
+        <v>2448.259651016315</v>
       </c>
       <c r="T2" t="n">
-        <v>2589.992766140986</v>
+        <v>2236.241780077746</v>
       </c>
       <c r="U2" t="n">
-        <v>2364.997192058552</v>
+        <v>1982.600918459332</v>
       </c>
       <c r="V2" t="n">
-        <v>2033.934304714981</v>
+        <v>1651.538031115761</v>
       </c>
       <c r="W2" t="n">
-        <v>1681.165649444867</v>
+        <v>1651.538031115761</v>
       </c>
       <c r="X2" t="n">
-        <v>1307.699891183787</v>
+        <v>1651.538031115761</v>
       </c>
       <c r="Y2" t="n">
-        <v>1307.699891183787</v>
+        <v>1261.39869913995</v>
       </c>
     </row>
     <row r="3">
@@ -4383,64 +4383,64 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>949.8902083093635</v>
+        <v>949.8902083093631</v>
       </c>
       <c r="C3" t="n">
-        <v>775.4371790282365</v>
+        <v>775.4371790282361</v>
       </c>
       <c r="D3" t="n">
-        <v>626.5027693669851</v>
+        <v>626.5027693669849</v>
       </c>
       <c r="E3" t="n">
-        <v>467.2653143615296</v>
+        <v>467.2653143615294</v>
       </c>
       <c r="F3" t="n">
-        <v>320.7307563884148</v>
+        <v>320.7307563884144</v>
       </c>
       <c r="G3" t="n">
-        <v>183.6293921686809</v>
+        <v>183.6293921686806</v>
       </c>
       <c r="H3" t="n">
-        <v>85.99742130093844</v>
+        <v>85.99742130093836</v>
       </c>
       <c r="I3" t="n">
         <v>51.79985532281972</v>
       </c>
       <c r="J3" t="n">
-        <v>77.11538214995008</v>
+        <v>77.11538214995069</v>
       </c>
       <c r="K3" t="n">
-        <v>460.3590590626809</v>
+        <v>460.3590590626825</v>
       </c>
       <c r="L3" t="n">
-        <v>669.9499323155105</v>
+        <v>669.9499323155136</v>
       </c>
       <c r="M3" t="n">
-        <v>933.8894638109966</v>
+        <v>949.3028377421937</v>
       </c>
       <c r="N3" t="n">
-        <v>1574.912673430891</v>
+        <v>1590.326047362088</v>
       </c>
       <c r="O3" t="n">
-        <v>2037.107513972039</v>
+        <v>1829.130999113547</v>
       </c>
       <c r="P3" t="n">
-        <v>2524.714615879286</v>
+        <v>2316.738101020794</v>
       </c>
       <c r="Q3" t="n">
         <v>2589.992766140986</v>
       </c>
       <c r="R3" t="n">
-        <v>2589.992766140987</v>
+        <v>2589.992766140986</v>
       </c>
       <c r="S3" t="n">
         <v>2446.841948662051</v>
       </c>
       <c r="T3" t="n">
-        <v>2251.223226128892</v>
+        <v>2251.223226128891</v>
       </c>
       <c r="U3" t="n">
-        <v>2023.106809259863</v>
+        <v>2023.106809259862</v>
       </c>
       <c r="V3" t="n">
         <v>1787.95470102812</v>
@@ -4452,7 +4452,7 @@
         <v>1325.865844094385</v>
       </c>
       <c r="Y3" t="n">
-        <v>1118.105545329432</v>
+        <v>1118.105545329431</v>
       </c>
     </row>
     <row r="4">
@@ -4462,7 +4462,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>75.52298013660246</v>
+        <v>112.5082371850602</v>
       </c>
       <c r="C4" t="n">
         <v>51.79985532281972</v>
@@ -4486,52 +4486,52 @@
         <v>51.79985532281972</v>
       </c>
       <c r="J4" t="n">
-        <v>54.03452733018376</v>
+        <v>54.03452733018415</v>
       </c>
       <c r="K4" t="n">
-        <v>187.5436166159864</v>
+        <v>187.5436166159875</v>
       </c>
       <c r="L4" t="n">
-        <v>413.9157199341299</v>
+        <v>413.9157199341317</v>
       </c>
       <c r="M4" t="n">
-        <v>662.9824862666695</v>
+        <v>662.9824862666723</v>
       </c>
       <c r="N4" t="n">
-        <v>911.5616180092698</v>
+        <v>911.5616180092733</v>
       </c>
       <c r="O4" t="n">
-        <v>1125.148384357424</v>
+        <v>1125.148384357428</v>
       </c>
       <c r="P4" t="n">
-        <v>1284.388078993468</v>
+        <v>1284.388078993472</v>
       </c>
       <c r="Q4" t="n">
-        <v>1311.202309361118</v>
+        <v>1311.202309361123</v>
       </c>
       <c r="R4" t="n">
-        <v>1311.202309361118</v>
+        <v>1311.202309361123</v>
       </c>
       <c r="S4" t="n">
-        <v>1311.202309361118</v>
+        <v>1108.730062521424</v>
       </c>
       <c r="T4" t="n">
-        <v>1311.202309361118</v>
+        <v>884.3189032968623</v>
       </c>
       <c r="U4" t="n">
-        <v>1022.06568235322</v>
+        <v>595.1822762889644</v>
       </c>
       <c r="V4" t="n">
-        <v>767.3811941473328</v>
+        <v>340.4977880830776</v>
       </c>
       <c r="W4" t="n">
-        <v>477.9640241103722</v>
+        <v>340.4977880830776</v>
       </c>
       <c r="X4" t="n">
-        <v>477.9640241103722</v>
+        <v>112.5082371850602</v>
       </c>
       <c r="Y4" t="n">
-        <v>257.1714449668422</v>
+        <v>112.5082371850602</v>
       </c>
     </row>
     <row r="5">
@@ -4541,13 +4541,13 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>374.211326405689</v>
+        <v>1121.107871834205</v>
       </c>
       <c r="C5" t="n">
-        <v>374.211326405689</v>
+        <v>752.1453548937932</v>
       </c>
       <c r="D5" t="n">
-        <v>374.211326405689</v>
+        <v>393.8796562870427</v>
       </c>
       <c r="E5" t="n">
         <v>374.211326405689</v>
@@ -4571,13 +4571,13 @@
         <v>447.8319447135512</v>
       </c>
       <c r="L5" t="n">
-        <v>804.6133007477385</v>
+        <v>804.6133007477388</v>
       </c>
       <c r="M5" t="n">
-        <v>1233.270741187502</v>
+        <v>1233.270741187503</v>
       </c>
       <c r="N5" t="n">
-        <v>1673.478115539971</v>
+        <v>1673.478115539972</v>
       </c>
       <c r="O5" t="n">
         <v>2075.818195082061</v>
@@ -4592,25 +4592,25 @@
         <v>2589.992766140986</v>
       </c>
       <c r="S5" t="n">
-        <v>2465.815585560731</v>
+        <v>2465.81558556073</v>
       </c>
       <c r="T5" t="n">
-        <v>2257.170226019558</v>
+        <v>2465.81558556073</v>
       </c>
       <c r="U5" t="n">
-        <v>2003.590997961805</v>
+        <v>2212.236357502977</v>
       </c>
       <c r="V5" t="n">
-        <v>1672.528110618235</v>
+        <v>1881.173470159406</v>
       </c>
       <c r="W5" t="n">
-        <v>1524.416256706702</v>
+        <v>1881.173470159406</v>
       </c>
       <c r="X5" t="n">
-        <v>1150.950498445623</v>
+        <v>1507.707711898327</v>
       </c>
       <c r="Y5" t="n">
-        <v>760.8111664698108</v>
+        <v>1507.707711898327</v>
       </c>
     </row>
     <row r="6">
@@ -4653,13 +4653,13 @@
         <v>599.2586963421438</v>
       </c>
       <c r="M6" t="n">
-        <v>1164.302981905901</v>
+        <v>965.5645858344694</v>
       </c>
       <c r="N6" t="n">
-        <v>1554.712543231644</v>
+        <v>1355.974147160212</v>
       </c>
       <c r="O6" t="n">
-        <v>2195.735752851538</v>
+        <v>1880.457611898</v>
       </c>
       <c r="P6" t="n">
         <v>2445.212480716556</v>
@@ -4699,16 +4699,16 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>623.2887458811758</v>
+        <v>157.3459760430229</v>
       </c>
       <c r="C7" t="n">
-        <v>454.3525629532689</v>
+        <v>157.3459760430229</v>
       </c>
       <c r="D7" t="n">
-        <v>304.2359235409332</v>
+        <v>157.3459760430229</v>
       </c>
       <c r="E7" t="n">
-        <v>304.2359235409332</v>
+        <v>157.3459760430229</v>
       </c>
       <c r="F7" t="n">
         <v>157.3459760430229</v>
@@ -4723,7 +4723,7 @@
         <v>51.79985532281972</v>
       </c>
       <c r="J7" t="n">
-        <v>77.98108068080553</v>
+        <v>77.98108068080552</v>
       </c>
       <c r="K7" t="n">
         <v>250.8417132121973</v>
@@ -4747,28 +4747,28 @@
         <v>1646.983670153878</v>
       </c>
       <c r="R7" t="n">
-        <v>1606.406732195996</v>
+        <v>1544.862307910904</v>
       </c>
       <c r="S7" t="n">
-        <v>1606.406732195996</v>
+        <v>1348.412641916873</v>
       </c>
       <c r="T7" t="n">
-        <v>1383.472157737978</v>
+        <v>1125.478067458854</v>
       </c>
       <c r="U7" t="n">
-        <v>1094.354380748376</v>
+        <v>836.3602904692525</v>
       </c>
       <c r="V7" t="n">
-        <v>1094.354380748376</v>
+        <v>581.6758022633657</v>
       </c>
       <c r="W7" t="n">
-        <v>804.9372107114156</v>
+        <v>292.258632226405</v>
       </c>
       <c r="X7" t="n">
-        <v>804.9372107114156</v>
+        <v>292.258632226405</v>
       </c>
       <c r="Y7" t="n">
-        <v>804.9372107114156</v>
+        <v>292.258632226405</v>
       </c>
     </row>
     <row r="8">
@@ -4778,25 +4778,25 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1410.105451134368</v>
+        <v>1202.007899202015</v>
       </c>
       <c r="C8" t="n">
-        <v>1041.142934193956</v>
+        <v>1202.007899202015</v>
       </c>
       <c r="D8" t="n">
-        <v>878.4676019122953</v>
+        <v>843.7422005952644</v>
       </c>
       <c r="E8" t="n">
-        <v>878.4676019122953</v>
+        <v>843.7422005952644</v>
       </c>
       <c r="F8" t="n">
-        <v>467.4816971226878</v>
+        <v>836.796699846061</v>
       </c>
       <c r="G8" t="n">
-        <v>51.79985532281972</v>
+        <v>421.1148580461929</v>
       </c>
       <c r="H8" t="n">
-        <v>51.79985532281972</v>
+        <v>117.2903254719911</v>
       </c>
       <c r="I8" t="n">
         <v>51.79985532281972</v>
@@ -4811,13 +4811,13 @@
         <v>804.6133007477385</v>
       </c>
       <c r="M8" t="n">
-        <v>1233.270741187503</v>
+        <v>1233.270741187502</v>
       </c>
       <c r="N8" t="n">
-        <v>1673.478115539972</v>
+        <v>1673.478115539971</v>
       </c>
       <c r="O8" t="n">
-        <v>2075.818195082062</v>
+        <v>2075.818195082061</v>
       </c>
       <c r="P8" t="n">
         <v>2384.705143645557</v>
@@ -4832,22 +4832,22 @@
         <v>2589.992766140986</v>
       </c>
       <c r="T8" t="n">
-        <v>2381.347406599813</v>
+        <v>2589.992766140986</v>
       </c>
       <c r="U8" t="n">
-        <v>2127.76817854206</v>
+        <v>2336.413538083233</v>
       </c>
       <c r="V8" t="n">
-        <v>1796.70529119849</v>
+        <v>2005.350650739662</v>
       </c>
       <c r="W8" t="n">
-        <v>1796.70529119849</v>
+        <v>1652.581995469548</v>
       </c>
       <c r="X8" t="n">
-        <v>1796.70529119849</v>
+        <v>1588.607739266137</v>
       </c>
       <c r="Y8" t="n">
-        <v>1796.70529119849</v>
+        <v>1588.607739266137</v>
       </c>
     </row>
     <row r="9">
@@ -4881,28 +4881,28 @@
         <v>51.79985532281972</v>
       </c>
       <c r="J9" t="n">
-        <v>240.1153828096209</v>
+        <v>115.2852578226162</v>
       </c>
       <c r="K9" t="n">
-        <v>426.7768722128337</v>
+        <v>563.7673318682818</v>
       </c>
       <c r="L9" t="n">
-        <v>724.0888213291485</v>
+        <v>861.0792809845966</v>
       </c>
       <c r="M9" t="n">
-        <v>1130.035448032194</v>
+        <v>1227.385170476922</v>
       </c>
       <c r="N9" t="n">
-        <v>1520.445009357936</v>
+        <v>1860.807072136006</v>
       </c>
       <c r="O9" t="n">
-        <v>1855.373690073468</v>
+        <v>2195.735752851538</v>
       </c>
       <c r="P9" t="n">
-        <v>2420.128558892024</v>
+        <v>2445.212480716556</v>
       </c>
       <c r="Q9" t="n">
-        <v>2536.977948259489</v>
+        <v>2562.061870084021</v>
       </c>
       <c r="R9" t="n">
         <v>2562.061870084021</v>
@@ -4936,22 +4936,22 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>475.4388041934692</v>
+        <v>620.859647846162</v>
       </c>
       <c r="C10" t="n">
-        <v>475.4388041934692</v>
+        <v>620.859647846162</v>
       </c>
       <c r="D10" t="n">
-        <v>325.3221647811335</v>
+        <v>620.859647846162</v>
       </c>
       <c r="E10" t="n">
-        <v>325.3221647811335</v>
+        <v>620.859647846162</v>
       </c>
       <c r="F10" t="n">
-        <v>325.3221647811335</v>
+        <v>473.9697003482516</v>
       </c>
       <c r="G10" t="n">
-        <v>157.3459760430229</v>
+        <v>305.993511610141</v>
       </c>
       <c r="H10" t="n">
         <v>157.3459760430229</v>
@@ -4960,7 +4960,7 @@
         <v>51.79985532281972</v>
       </c>
       <c r="J10" t="n">
-        <v>77.98108068080553</v>
+        <v>77.98108068080552</v>
       </c>
       <c r="K10" t="n">
         <v>250.8417132121973</v>
@@ -4984,28 +4984,28 @@
         <v>1646.983670153878</v>
       </c>
       <c r="R10" t="n">
-        <v>1646.983670153878</v>
+        <v>1544.862307910904</v>
       </c>
       <c r="S10" t="n">
-        <v>1646.983670153878</v>
+        <v>1544.862307910904</v>
       </c>
       <c r="T10" t="n">
-        <v>1424.04909569586</v>
+        <v>1321.927733452886</v>
       </c>
       <c r="U10" t="n">
-        <v>1201.188927266556</v>
+        <v>1032.809956463284</v>
       </c>
       <c r="V10" t="n">
-        <v>946.5044390606695</v>
+        <v>778.1254682573971</v>
       </c>
       <c r="W10" t="n">
-        <v>657.0872690237089</v>
+        <v>778.1254682573971</v>
       </c>
       <c r="X10" t="n">
-        <v>657.0872690237089</v>
+        <v>778.1254682573971</v>
       </c>
       <c r="Y10" t="n">
-        <v>657.0872690237089</v>
+        <v>620.859647846162</v>
       </c>
     </row>
     <row r="11">
@@ -5027,25 +5027,25 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F11" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G11" t="n">
         <v>379.8308874362683</v>
       </c>
       <c r="H11" t="n">
-        <v>93.81666304797187</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I11" t="n">
-        <v>95.34095638192598</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J11" t="n">
-        <v>378.1925803111716</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K11" t="n">
-        <v>852.8523611075794</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L11" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M11" t="n">
         <v>2206.558663014778</v>
@@ -5115,22 +5115,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I12" t="n">
-        <v>95.58405025273905</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J12" t="n">
-        <v>184.7035232280583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="K12" t="n">
-        <v>184.7035232280583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="L12" t="n">
-        <v>680.0291294438171</v>
+        <v>589.1422692637306</v>
       </c>
       <c r="M12" t="n">
-        <v>680.0291294438171</v>
+        <v>1186.520756890282</v>
       </c>
       <c r="N12" t="n">
-        <v>1307.627092998424</v>
+        <v>1814.118720444889</v>
       </c>
       <c r="O12" t="n">
         <v>1859.536823237711</v>
@@ -5173,22 +5173,22 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>868.6673633290468</v>
+        <v>695.5020655703109</v>
       </c>
       <c r="C13" t="n">
-        <v>699.7311804011399</v>
+        <v>526.5658826424041</v>
       </c>
       <c r="D13" t="n">
-        <v>549.6145409888042</v>
+        <v>407.9027098310023</v>
       </c>
       <c r="E13" t="n">
-        <v>549.6145409888042</v>
+        <v>407.9027098310023</v>
       </c>
       <c r="F13" t="n">
-        <v>402.7245934908938</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G13" t="n">
-        <v>235.5284942057738</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H13" t="n">
         <v>93.81666304797187</v>
@@ -5197,52 +5197,52 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J13" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K13" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L13" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M13" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N13" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O13" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P13" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q13" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R13" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S13" t="n">
-        <v>2379.917379832663</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T13" t="n">
-        <v>2160.315914855604</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U13" t="n">
-        <v>1871.240688199802</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V13" t="n">
-        <v>1616.556199993915</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W13" t="n">
-        <v>1327.139029956954</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X13" t="n">
-        <v>1271.108407302816</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y13" t="n">
-        <v>1050.315828159286</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="14">
@@ -5264,34 +5264,34 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F14" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G14" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H14" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I14" t="n">
-        <v>95.34095638192598</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J14" t="n">
-        <v>378.1925803111716</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K14" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L14" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M14" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N14" t="n">
         <v>2950.898526355938</v>
       </c>
       <c r="O14" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P14" t="n">
         <v>4194.413870694707</v>
@@ -5312,13 +5312,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V14" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W14" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X14" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y14" t="n">
         <v>2704.375866615997</v>
@@ -5352,25 +5352,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I15" t="n">
-        <v>95.58405025273905</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J15" t="n">
-        <v>245.2306927803938</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K15" t="n">
-        <v>579.1554649516144</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="L15" t="n">
-        <v>680.0291294438171</v>
+        <v>740.5562989961525</v>
       </c>
       <c r="M15" t="n">
-        <v>680.0291294438171</v>
+        <v>1337.934786622704</v>
       </c>
       <c r="N15" t="n">
-        <v>1307.627092998424</v>
+        <v>1731.250242493492</v>
       </c>
       <c r="O15" t="n">
-        <v>1859.536823237711</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="P15" t="n">
         <v>2283.159972732779</v>
@@ -5410,76 +5410,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>653.7474797708871</v>
+        <v>803.8641191832237</v>
       </c>
       <c r="C16" t="n">
-        <v>484.8112968429802</v>
+        <v>634.9279362553168</v>
       </c>
       <c r="D16" t="n">
-        <v>484.8112968429802</v>
+        <v>484.8112968429811</v>
       </c>
       <c r="E16" t="n">
-        <v>484.8112968429802</v>
+        <v>484.8112968429811</v>
       </c>
       <c r="F16" t="n">
-        <v>484.8112968429802</v>
+        <v>484.8112968429811</v>
       </c>
       <c r="G16" t="n">
-        <v>317.6151975578601</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H16" t="n">
-        <v>175.9033664000582</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I16" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J16" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K16" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L16" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M16" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N16" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O16" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P16" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q16" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R16" t="n">
-        <v>2379.917379832663</v>
+        <v>2441.938347377798</v>
       </c>
       <c r="S16" t="n">
-        <v>2197.062545487568</v>
+        <v>2259.083513032702</v>
       </c>
       <c r="T16" t="n">
-        <v>1977.461080510509</v>
+        <v>2039.482048055643</v>
       </c>
       <c r="U16" t="n">
-        <v>1828.279732885522</v>
+        <v>1750.406821399841</v>
       </c>
       <c r="V16" t="n">
-        <v>1573.595244679635</v>
+        <v>1495.722333193954</v>
       </c>
       <c r="W16" t="n">
-        <v>1284.178074642674</v>
+        <v>1206.305163156994</v>
       </c>
       <c r="X16" t="n">
-        <v>1056.188523744657</v>
+        <v>1206.305163156994</v>
       </c>
       <c r="Y16" t="n">
-        <v>835.3959446011269</v>
+        <v>985.5125840134634</v>
       </c>
     </row>
     <row r="17">
@@ -5504,37 +5504,37 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G17" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H17" t="n">
-        <v>93.81666304797189</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I17" t="n">
-        <v>95.34095638192548</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J17" t="n">
-        <v>378.1925803111708</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K17" t="n">
-        <v>852.8523611075802</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L17" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M17" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N17" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O17" t="n">
         <v>3640.42229106801</v>
       </c>
       <c r="P17" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q17" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R17" t="n">
         <v>4690.833152398593</v>
@@ -5589,25 +5589,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I18" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J18" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K18" t="n">
-        <v>243.4633055756266</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L18" t="n">
-        <v>243.4633055756266</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M18" t="n">
-        <v>680.0291294438171</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N18" t="n">
-        <v>1307.627092998424</v>
+        <v>1731.250242493492</v>
       </c>
       <c r="O18" t="n">
-        <v>1859.536823237711</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="P18" t="n">
         <v>2283.159972732779</v>
@@ -5647,19 +5647,19 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>580.8993044876693</v>
+        <v>705.9324428257312</v>
       </c>
       <c r="C19" t="n">
-        <v>411.9631215597624</v>
+        <v>705.9324428257312</v>
       </c>
       <c r="D19" t="n">
-        <v>261.8464821474266</v>
+        <v>555.8158034133954</v>
       </c>
       <c r="E19" t="n">
-        <v>113.9333885650335</v>
+        <v>407.9027098310023</v>
       </c>
       <c r="F19" t="n">
-        <v>113.9333885650335</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G19" t="n">
         <v>93.81666304797187</v>
@@ -5671,52 +5671,52 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J19" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K19" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L19" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M19" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N19" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O19" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P19" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q19" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R19" t="n">
-        <v>2446.963083580261</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S19" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T19" t="n">
-        <v>2044.506784258106</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U19" t="n">
-        <v>1755.431557602304</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V19" t="n">
-        <v>1500.747069396417</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W19" t="n">
-        <v>1211.329899359456</v>
+        <v>1336.363037697518</v>
       </c>
       <c r="X19" t="n">
-        <v>983.3403484614391</v>
+        <v>1108.373486799501</v>
       </c>
       <c r="Y19" t="n">
-        <v>762.547769317909</v>
+        <v>887.5809076559709</v>
       </c>
     </row>
     <row r="20">
@@ -5747,25 +5747,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I20" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192596</v>
       </c>
       <c r="J20" t="n">
         <v>378.1925803111717</v>
       </c>
       <c r="K20" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075811</v>
       </c>
       <c r="L20" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M20" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N20" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O20" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P20" t="n">
         <v>4194.413870694707</v>
@@ -5826,31 +5826,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I21" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J21" t="n">
-        <v>221.3431781811722</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="K21" t="n">
-        <v>221.3431781811722</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="L21" t="n">
-        <v>716.6687843969308</v>
+        <v>590.9096564684977</v>
       </c>
       <c r="M21" t="n">
-        <v>716.6687843969308</v>
+        <v>913.2907898187001</v>
       </c>
       <c r="N21" t="n">
-        <v>1344.266747951538</v>
+        <v>1540.888753373307</v>
       </c>
       <c r="O21" t="n">
-        <v>1896.176478190825</v>
+        <v>2092.798483612594</v>
       </c>
       <c r="P21" t="n">
-        <v>2319.799627685893</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="Q21" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R21" t="n">
         <v>2553.061288060775</v>
@@ -5884,19 +5884,19 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>557.5558870561822</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C22" t="n">
-        <v>388.6197041282753</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D22" t="n">
-        <v>388.6197041282753</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E22" t="n">
-        <v>240.7066105458822</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="F22" t="n">
-        <v>93.81666304797187</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G22" t="n">
         <v>93.81666304797187</v>
@@ -5975,31 +5975,31 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F23" t="n">
-        <v>793.7736536168612</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G23" t="n">
-        <v>379.8308874362687</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H23" t="n">
-        <v>93.81666304797187</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I23" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J23" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K23" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L23" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M23" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N23" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O23" t="n">
         <v>3640.42229106801</v>
@@ -6066,28 +6066,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J24" t="n">
-        <v>93.81666304797187</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K24" t="n">
-        <v>93.81666304797187</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="L24" t="n">
-        <v>93.81666304797187</v>
+        <v>738.7889117913853</v>
       </c>
       <c r="M24" t="n">
-        <v>680.0291294438176</v>
+        <v>738.7889117913853</v>
       </c>
       <c r="N24" t="n">
-        <v>1307.627092998424</v>
+        <v>1366.386875345992</v>
       </c>
       <c r="O24" t="n">
-        <v>1859.536823237711</v>
+        <v>1918.296605585279</v>
       </c>
       <c r="P24" t="n">
-        <v>2283.159972732779</v>
+        <v>2341.919755080347</v>
       </c>
       <c r="Q24" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R24" t="n">
         <v>2553.061288060775</v>
@@ -6121,25 +6121,25 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>782.8410298377091</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C25" t="n">
-        <v>782.8410298377091</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D25" t="n">
-        <v>632.7243904253734</v>
+        <v>194.8007783998286</v>
       </c>
       <c r="E25" t="n">
-        <v>484.8112968429803</v>
+        <v>194.8007783998286</v>
       </c>
       <c r="F25" t="n">
-        <v>484.8112968429803</v>
+        <v>194.8007783998286</v>
       </c>
       <c r="G25" t="n">
-        <v>317.6151975578602</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H25" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I25" t="n">
         <v>93.81666304797187</v>
@@ -6169,28 +6169,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R25" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S25" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T25" t="n">
-        <v>2044.506784258106</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U25" t="n">
-        <v>1957.373282952344</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V25" t="n">
-        <v>1702.688794746457</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W25" t="n">
-        <v>1413.271624709496</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X25" t="n">
-        <v>1185.282073811479</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y25" t="n">
-        <v>964.4894946679489</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="26">
@@ -6215,16 +6215,16 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G26" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H26" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I26" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J26" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K26" t="n">
         <v>852.8523611075807</v>
@@ -6233,10 +6233,10 @@
         <v>1478.611553332388</v>
       </c>
       <c r="M26" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N26" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O26" t="n">
         <v>3640.42229106801</v>
@@ -6303,28 +6303,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J27" t="n">
-        <v>93.81666304797187</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K27" t="n">
-        <v>93.81666304797187</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L27" t="n">
-        <v>93.81666304797187</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M27" t="n">
-        <v>680.0291294438176</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N27" t="n">
-        <v>1307.627092998424</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="O27" t="n">
-        <v>1859.536823237711</v>
+        <v>2222.001901828445</v>
       </c>
       <c r="P27" t="n">
-        <v>2283.159972732779</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="Q27" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R27" t="n">
         <v>2553.061288060775</v>
@@ -6358,25 +6358,25 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>1098.667160263527</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C28" t="n">
-        <v>929.7309773356195</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D28" t="n">
-        <v>779.6143379232838</v>
+        <v>241.729756630365</v>
       </c>
       <c r="E28" t="n">
-        <v>631.7012443408906</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="F28" t="n">
-        <v>484.8112968429803</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G28" t="n">
-        <v>317.6151975578602</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H28" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I28" t="n">
         <v>93.81666304797187</v>
@@ -6409,25 +6409,25 @@
         <v>2379.917379832663</v>
       </c>
       <c r="S28" t="n">
-        <v>2379.917379832663</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T28" t="n">
-        <v>2160.315914855604</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U28" t="n">
-        <v>2045.209862480144</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V28" t="n">
-        <v>1790.525374274257</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W28" t="n">
-        <v>1501.108204237296</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X28" t="n">
-        <v>1501.108204237296</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y28" t="n">
-        <v>1280.315625093766</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="29">
@@ -6449,10 +6449,10 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F29" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G29" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362687</v>
       </c>
       <c r="H29" t="n">
         <v>93.81666304797187</v>
@@ -6503,7 +6503,7 @@
         <v>3467.980956852888</v>
       </c>
       <c r="X29" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y29" t="n">
         <v>2704.375866615997</v>
@@ -6543,22 +6543,22 @@
         <v>243.4633055756266</v>
       </c>
       <c r="K30" t="n">
-        <v>577.3880777468471</v>
+        <v>251.562654109227</v>
       </c>
       <c r="L30" t="n">
-        <v>1072.713683962606</v>
+        <v>746.8882603249857</v>
       </c>
       <c r="M30" t="n">
-        <v>1670.092171589158</v>
+        <v>1344.266747951538</v>
       </c>
       <c r="N30" t="n">
-        <v>2297.690135143765</v>
+        <v>1344.266747951538</v>
       </c>
       <c r="O30" t="n">
-        <v>2553.061288060775</v>
+        <v>1896.176478190825</v>
       </c>
       <c r="P30" t="n">
-        <v>2553.061288060775</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="Q30" t="n">
         <v>2553.061288060775</v>
@@ -6595,22 +6595,22 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>734.6461798836013</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C31" t="n">
-        <v>734.6461798836013</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D31" t="n">
-        <v>697.5276345711974</v>
+        <v>194.8007783998286</v>
       </c>
       <c r="E31" t="n">
-        <v>549.6145409888043</v>
+        <v>194.8007783998286</v>
       </c>
       <c r="F31" t="n">
-        <v>402.7245934908939</v>
+        <v>194.8007783998286</v>
       </c>
       <c r="G31" t="n">
-        <v>235.5284942057738</v>
+        <v>194.8007783998286</v>
       </c>
       <c r="H31" t="n">
         <v>93.81666304797187</v>
@@ -6664,7 +6664,7 @@
         <v>916.2946447138411</v>
       </c>
       <c r="Y31" t="n">
-        <v>916.2946447138411</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="32">
@@ -6689,16 +6689,16 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G32" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H32" t="n">
-        <v>93.81666304797187</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I32" t="n">
-        <v>95.34095638192592</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J32" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K32" t="n">
         <v>852.8523611075807</v>
@@ -6707,13 +6707,13 @@
         <v>1478.611553332387</v>
       </c>
       <c r="M32" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N32" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O32" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P32" t="n">
         <v>4194.413870694707</v>
@@ -6734,13 +6734,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V32" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W32" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X32" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y32" t="n">
         <v>2704.375866615997</v>
@@ -6783,19 +6783,19 @@
         <v>577.3880777468471</v>
       </c>
       <c r="L33" t="n">
-        <v>1072.713683962606</v>
+        <v>716.6687843969308</v>
       </c>
       <c r="M33" t="n">
-        <v>1670.092171589158</v>
+        <v>716.6687843969308</v>
       </c>
       <c r="N33" t="n">
-        <v>2297.690135143765</v>
+        <v>1344.266747951538</v>
       </c>
       <c r="O33" t="n">
-        <v>2553.061288060775</v>
+        <v>1896.176478190825</v>
       </c>
       <c r="P33" t="n">
-        <v>2553.061288060775</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="Q33" t="n">
         <v>2553.061288060775</v>
@@ -6835,22 +6835,22 @@
         <v>926.9575315319328</v>
       </c>
       <c r="C34" t="n">
-        <v>782.5512955656818</v>
+        <v>782.5512955656822</v>
       </c>
       <c r="D34" t="n">
-        <v>656.9646031150023</v>
+        <v>656.9646031150027</v>
       </c>
       <c r="E34" t="n">
-        <v>533.5814564942655</v>
+        <v>533.5814564942658</v>
       </c>
       <c r="F34" t="n">
-        <v>411.2214559580114</v>
+        <v>411.2214559580117</v>
       </c>
       <c r="G34" t="n">
-        <v>268.5553036345476</v>
+        <v>268.555303634548</v>
       </c>
       <c r="H34" t="n">
-        <v>151.373419438402</v>
+        <v>151.3734194384023</v>
       </c>
       <c r="I34" t="n">
         <v>93.81666304797187</v>
@@ -6859,10 +6859,10 @@
         <v>198.094482495415</v>
       </c>
       <c r="K34" t="n">
-        <v>483.8255460380728</v>
+        <v>483.825546038073</v>
       </c>
       <c r="L34" t="n">
-        <v>898.2659412311323</v>
+        <v>898.2659412311325</v>
       </c>
       <c r="M34" t="n">
         <v>1344.317444979286</v>
@@ -6923,34 +6923,34 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F35" t="n">
-        <v>793.7736536168612</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G35" t="n">
-        <v>379.8308874362687</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H35" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I35" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J35" t="n">
-        <v>378.192580311172</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K35" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075805</v>
       </c>
       <c r="L35" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M35" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N35" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O35" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P35" t="n">
         <v>4194.413870694707</v>
@@ -7011,28 +7011,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I36" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J36" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K36" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="L36" t="n">
-        <v>93.81666304797187</v>
+        <v>740.5562989961525</v>
       </c>
       <c r="M36" t="n">
-        <v>680.0291294438176</v>
+        <v>1337.934786622704</v>
       </c>
       <c r="N36" t="n">
-        <v>1307.627092998424</v>
+        <v>1540.888753373307</v>
       </c>
       <c r="O36" t="n">
-        <v>1859.536823237711</v>
+        <v>2092.798483612594</v>
       </c>
       <c r="P36" t="n">
-        <v>2283.159972732779</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="Q36" t="n">
         <v>2516.421633107662</v>
@@ -7069,13 +7069,13 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>926.9575315319324</v>
+        <v>926.9575315319328</v>
       </c>
       <c r="C37" t="n">
-        <v>782.5512955656818</v>
+        <v>782.5512955656822</v>
       </c>
       <c r="D37" t="n">
-        <v>656.9646031150023</v>
+        <v>656.9646031150027</v>
       </c>
       <c r="E37" t="n">
         <v>533.5814564942655</v>
@@ -7096,10 +7096,10 @@
         <v>198.094482495415</v>
       </c>
       <c r="K37" t="n">
-        <v>483.8255460380728</v>
+        <v>483.825546038073</v>
       </c>
       <c r="L37" t="n">
-        <v>898.2659412311323</v>
+        <v>898.2659412311325</v>
       </c>
       <c r="M37" t="n">
         <v>1344.317444979286</v>
@@ -7117,19 +7117,19 @@
         <v>2639.297491717215</v>
       </c>
       <c r="R37" t="n">
-        <v>2596.781734931273</v>
+        <v>2596.781734931274</v>
       </c>
       <c r="S37" t="n">
-        <v>2438.456847547834</v>
+        <v>2438.456847547835</v>
       </c>
       <c r="T37" t="n">
         <v>2243.385329532432</v>
       </c>
       <c r="U37" t="n">
-        <v>1978.840049838285</v>
+        <v>1978.840049838286</v>
       </c>
       <c r="V37" t="n">
-        <v>1748.685508594055</v>
+        <v>1748.685508594056</v>
       </c>
       <c r="W37" t="n">
         <v>1483.798285518751</v>
@@ -7154,37 +7154,37 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D38" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E38" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F38" t="n">
-        <v>793.7736536168607</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G38" t="n">
-        <v>379.8308874362681</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H38" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I38" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J38" t="n">
-        <v>378.1925803111717</v>
+        <v>378.192580311172</v>
       </c>
       <c r="K38" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L38" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M38" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N38" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O38" t="n">
         <v>3640.42229106801</v>
@@ -7248,31 +7248,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I39" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J39" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K39" t="n">
-        <v>93.81666304797187</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L39" t="n">
-        <v>119.290296770379</v>
+        <v>634.5603720565526</v>
       </c>
       <c r="M39" t="n">
-        <v>716.6687843969308</v>
+        <v>1231.938859683105</v>
       </c>
       <c r="N39" t="n">
-        <v>1344.266747951538</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="O39" t="n">
-        <v>1896.176478190825</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P39" t="n">
-        <v>2319.799627685893</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q39" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R39" t="n">
         <v>2553.061288060775</v>
@@ -7306,19 +7306,19 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>926.9575315319322</v>
+        <v>926.9575315319328</v>
       </c>
       <c r="C40" t="n">
-        <v>782.5512955656816</v>
+        <v>782.5512955656822</v>
       </c>
       <c r="D40" t="n">
-        <v>656.9646031150021</v>
+        <v>656.9646031150027</v>
       </c>
       <c r="E40" t="n">
-        <v>533.5814564942652</v>
+        <v>533.5814564942658</v>
       </c>
       <c r="F40" t="n">
-        <v>411.2214559580111</v>
+        <v>411.2214559580114</v>
       </c>
       <c r="G40" t="n">
         <v>268.5553036345476</v>
@@ -7327,16 +7327,16 @@
         <v>151.373419438402</v>
       </c>
       <c r="I40" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J40" t="n">
         <v>198.094482495415</v>
       </c>
       <c r="K40" t="n">
-        <v>483.8255460380728</v>
+        <v>483.825546038073</v>
       </c>
       <c r="L40" t="n">
-        <v>898.2659412311323</v>
+        <v>898.2659412311325</v>
       </c>
       <c r="M40" t="n">
         <v>1344.317444979286</v>
@@ -7354,7 +7354,7 @@
         <v>2639.297491717215</v>
       </c>
       <c r="R40" t="n">
-        <v>2596.781734931273</v>
+        <v>2596.781734931274</v>
       </c>
       <c r="S40" t="n">
         <v>2438.456847547835</v>
@@ -7366,13 +7366,13 @@
         <v>1978.840049838286</v>
       </c>
       <c r="V40" t="n">
-        <v>1748.685508594055</v>
+        <v>1748.685508594056</v>
       </c>
       <c r="W40" t="n">
         <v>1483.798285518751</v>
       </c>
       <c r="X40" t="n">
-        <v>1280.338681582389</v>
+        <v>1280.33868158239</v>
       </c>
       <c r="Y40" t="n">
         <v>1084.076049400516</v>
@@ -7397,7 +7397,7 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F41" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G41" t="n">
         <v>379.8308874362686</v>
@@ -7488,13 +7488,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J42" t="n">
-        <v>93.81666304797187</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K42" t="n">
-        <v>93.81666304797187</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L42" t="n">
-        <v>93.81666304797187</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="M42" t="n">
         <v>680.0291294438176</v>
@@ -7558,16 +7558,16 @@
         <v>411.2214559580115</v>
       </c>
       <c r="G43" t="n">
-        <v>268.5553036345476</v>
+        <v>268.5553036345477</v>
       </c>
       <c r="H43" t="n">
-        <v>151.3734194384019</v>
+        <v>151.373419438402</v>
       </c>
       <c r="I43" t="n">
         <v>93.81666304797189</v>
       </c>
       <c r="J43" t="n">
-        <v>198.094482495415</v>
+        <v>198.0944824954149</v>
       </c>
       <c r="K43" t="n">
         <v>483.8255460380728</v>
@@ -7637,10 +7637,10 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G44" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H44" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I44" t="n">
         <v>95.34095638192593</v>
@@ -7722,25 +7722,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I45" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J45" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K45" t="n">
-        <v>93.81666304797187</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L45" t="n">
-        <v>93.81666304797187</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M45" t="n">
-        <v>680.0291294438176</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N45" t="n">
-        <v>1307.627092998424</v>
+        <v>1731.250242493492</v>
       </c>
       <c r="O45" t="n">
-        <v>1859.536823237711</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="P45" t="n">
         <v>2283.159972732779</v>
@@ -7780,19 +7780,19 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>926.9575315319324</v>
+        <v>926.9575315319329</v>
       </c>
       <c r="C46" t="n">
-        <v>782.5512955656818</v>
+        <v>782.5512955656823</v>
       </c>
       <c r="D46" t="n">
-        <v>656.9646031150024</v>
+        <v>656.9646031150029</v>
       </c>
       <c r="E46" t="n">
-        <v>533.5814564942656</v>
+        <v>533.581456494266</v>
       </c>
       <c r="F46" t="n">
-        <v>411.2214559580116</v>
+        <v>411.221455958012</v>
       </c>
       <c r="G46" t="n">
         <v>268.5553036345474</v>
@@ -7807,16 +7807,16 @@
         <v>198.094482495415</v>
       </c>
       <c r="K46" t="n">
-        <v>483.825546038073</v>
+        <v>483.8255460380728</v>
       </c>
       <c r="L46" t="n">
-        <v>898.2659412311325</v>
+        <v>898.2659412311323</v>
       </c>
       <c r="M46" t="n">
         <v>1344.317444979286</v>
       </c>
       <c r="N46" t="n">
-        <v>1785.769117656413</v>
+        <v>1785.769117656414</v>
       </c>
       <c r="O46" t="n">
         <v>2179.340199382518</v>
@@ -7825,13 +7825,13 @@
         <v>2496.057455973196</v>
       </c>
       <c r="Q46" t="n">
-        <v>2639.297491717214</v>
+        <v>2639.297491717215</v>
       </c>
       <c r="R46" t="n">
-        <v>2596.781734931273</v>
+        <v>2596.781734931274</v>
       </c>
       <c r="S46" t="n">
-        <v>2438.456847547834</v>
+        <v>2438.456847547835</v>
       </c>
       <c r="T46" t="n">
         <v>2243.385329532432</v>
@@ -7840,7 +7840,7 @@
         <v>1978.840049838286</v>
       </c>
       <c r="V46" t="n">
-        <v>1748.685508594055</v>
+        <v>1748.685508594056</v>
       </c>
       <c r="W46" t="n">
         <v>1483.798285518751</v>
@@ -7976,31 +7976,31 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>98.97162991346389</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>407.4751802037413</v>
+        <v>407.4751802037392</v>
       </c>
       <c r="M2" t="n">
-        <v>0</v>
+        <v>348.4370131942333</v>
       </c>
       <c r="N2" t="n">
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>369.603020508345</v>
+        <v>0</v>
       </c>
       <c r="P2" t="n">
-        <v>117.3274242907497</v>
+        <v>0</v>
       </c>
       <c r="Q2" t="n">
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>26.19461818159803</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -8064,19 +8064,19 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>0</v>
+        <v>15.56906457696198</v>
       </c>
       <c r="N3" t="n">
-        <v>359.2821607945077</v>
+        <v>359.2821607945058</v>
       </c>
       <c r="O3" t="n">
-        <v>225.6463523128197</v>
+        <v>0</v>
       </c>
       <c r="P3" t="n">
         <v>318.4627686399372</v>
       </c>
       <c r="Q3" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R3" t="n">
         <v>45.52166981132082</v>
@@ -8301,16 +8301,16 @@
         <v>0</v>
       </c>
       <c r="M6" t="n">
-        <v>200.7458546176078</v>
+        <v>0</v>
       </c>
       <c r="N6" t="n">
         <v>0</v>
       </c>
       <c r="O6" t="n">
-        <v>309.1863928326897</v>
+        <v>191.4694788103603</v>
       </c>
       <c r="P6" t="n">
-        <v>0</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q6" t="n">
         <v>0</v>
@@ -8529,31 +8529,31 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J9" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K9" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L9" t="n">
         <v>0</v>
       </c>
       <c r="M9" t="n">
-        <v>40.04114869769666</v>
+        <v>0</v>
       </c>
       <c r="N9" t="n">
-        <v>0</v>
+        <v>245.4670104377188</v>
       </c>
       <c r="O9" t="n">
         <v>0</v>
       </c>
       <c r="P9" t="n">
-        <v>318.4627686399372</v>
+        <v>0</v>
       </c>
       <c r="Q9" t="n">
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>45.52166981132082</v>
+        <v>20.18437503906576</v>
       </c>
       <c r="S9" t="n">
         <v>0</v>
@@ -8690,7 +8690,7 @@
         <v>0</v>
       </c>
       <c r="K11" t="n">
-        <v>-1.477928890381008e-12</v>
+        <v>0</v>
       </c>
       <c r="L11" t="n">
         <v>0</v>
@@ -8942,7 +8942,7 @@
         <v>0</v>
       </c>
       <c r="P14" t="n">
-        <v>-1.13686837721616e-12</v>
+        <v>0</v>
       </c>
       <c r="Q14" t="n">
         <v>0</v>
@@ -9638,7 +9638,7 @@
         <v>0</v>
       </c>
       <c r="K23" t="n">
-        <v>5.684341886080801e-13</v>
+        <v>0</v>
       </c>
       <c r="L23" t="n">
         <v>0</v>
@@ -10118,13 +10118,13 @@
         <v>0</v>
       </c>
       <c r="M29" t="n">
-        <v>4.547473508864641e-13</v>
+        <v>0</v>
       </c>
       <c r="N29" t="n">
         <v>0</v>
       </c>
       <c r="O29" t="n">
-        <v>0</v>
+        <v>2.273736754432321e-13</v>
       </c>
       <c r="P29" t="n">
         <v>0</v>
@@ -11075,7 +11075,7 @@
         <v>0</v>
       </c>
       <c r="P41" t="n">
-        <v>0</v>
+        <v>4.547473508864641e-13</v>
       </c>
       <c r="Q41" t="n">
         <v>0</v>
@@ -22544,7 +22544,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>222.2669660761276</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
@@ -22559,10 +22559,10 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>412.2877386950441</v>
       </c>
       <c r="H2" t="n">
-        <v>308.5974454495114</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -22598,10 +22598,10 @@
         <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>209.8976922291835</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>28.35883466061924</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
@@ -22610,10 +22610,10 @@
         <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -22702,10 +22702,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
-        <v>93.36434580306187</v>
+        <v>107.1455230550097</v>
       </c>
       <c r="D4" t="n">
         <v>148.6154730182124</v>
@@ -22723,7 +22723,7 @@
         <v>150.2028876639205</v>
       </c>
       <c r="I4" t="n">
-        <v>114.7793764994864</v>
+        <v>114.7793764994862</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -22750,13 +22750,13 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>116.48346005197</v>
+        <v>116.4834600519698</v>
       </c>
       <c r="S4" t="n">
-        <v>200.4475243713015</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>222.1670476323163</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
         <v>0</v>
@@ -22768,10 +22768,10 @@
         <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="5">
@@ -23413,13 +23413,13 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
         <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>31.13893193492463</v>
       </c>
       <c r="E13" t="n">
         <v>146.4339626465692</v>
@@ -23431,10 +23431,10 @@
         <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I13" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23464,7 +23464,7 @@
         <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
         <v>0</v>
@@ -23479,7 +23479,7 @@
         <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>170.2393389614406</v>
+        <v>0</v>
       </c>
       <c r="Y13" t="n">
         <v>0</v>
@@ -23656,7 +23656,7 @@
         <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
         <v>146.4339626465692</v>
@@ -23698,7 +23698,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>61.40075786968385</v>
       </c>
       <c r="S16" t="n">
         <v>0</v>
@@ -23707,7 +23707,7 @@
         <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>138.4949402405073</v>
+        <v>0</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -23716,7 +23716,7 @@
         <v>0</v>
       </c>
       <c r="X16" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y16" t="n">
         <v>0</v>
@@ -23890,7 +23890,7 @@
         <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
         <v>0</v>
@@ -23899,16 +23899,16 @@
         <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>145.6085800303778</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I19" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23935,7 +23935,7 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>66.37524671012166</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
         <v>0</v>
@@ -23950,7 +23950,7 @@
         <v>0</v>
       </c>
       <c r="W19" t="n">
-        <v>0</v>
+        <v>190.1580536648033</v>
       </c>
       <c r="X19" t="n">
         <v>0</v>
@@ -24124,7 +24124,7 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>43.26526345294985</v>
+        <v>0</v>
       </c>
       <c r="C22" t="n">
         <v>0</v>
@@ -24133,13 +24133,13 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>63.36835372228749</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
         <v>140.2947128462239</v>
@@ -24364,25 +24364,25 @@
         <v>0</v>
       </c>
       <c r="C25" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D25" t="n">
         <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>65.54986409393069</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24409,7 +24409,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
         <v>0</v>
@@ -24418,7 +24418,7 @@
         <v>0</v>
       </c>
       <c r="U25" t="n">
-        <v>199.9223080965399</v>
+        <v>0</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -24604,22 +24604,22 @@
         <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>46.45968844823102</v>
       </c>
       <c r="E28" t="n">
         <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24649,13 +24649,13 @@
         <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T28" t="n">
         <v>0</v>
       </c>
       <c r="U28" t="n">
-        <v>172.2294825375383</v>
+        <v>0</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -24664,7 +24664,7 @@
         <v>0</v>
       </c>
       <c r="X28" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y28" t="n">
         <v>0</v>
@@ -24838,22 +24838,22 @@
         <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>111.8681131589324</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>40.32043864788574</v>
       </c>
       <c r="I31" t="n">
         <v>81.26583631856553</v>
@@ -24904,7 +24904,7 @@
         <v>0</v>
       </c>
       <c r="Y31" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32">
@@ -25075,7 +25075,7 @@
         <v>0</v>
       </c>
       <c r="C34" t="n">
-        <v>-1.583178160801231e-13</v>
+        <v>0</v>
       </c>
       <c r="D34" t="n">
         <v>0</v>
@@ -25357,7 +25357,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>-5.044853423896711e-13</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
         <v>0</v>
@@ -26320,7 +26320,7 @@
         <v>225786.486712678</v>
       </c>
       <c r="E2" t="n">
-        <v>221965.3149147516</v>
+        <v>221965.3149147517</v>
       </c>
       <c r="F2" t="n">
         <v>221965.3149147516</v>
@@ -26338,10 +26338,10 @@
         <v>221965.3149147517</v>
       </c>
       <c r="K2" t="n">
-        <v>221965.3149147517</v>
+        <v>221965.3149147516</v>
       </c>
       <c r="L2" t="n">
-        <v>225786.4867126781</v>
+        <v>225786.486712678</v>
       </c>
       <c r="M2" t="n">
         <v>225786.486712678</v>
@@ -26350,7 +26350,7 @@
         <v>225786.4867126781</v>
       </c>
       <c r="O2" t="n">
-        <v>225786.4867126781</v>
+        <v>225786.4867126779</v>
       </c>
       <c r="P2" t="n">
         <v>225786.486712678</v>
@@ -26363,16 +26363,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>939682.9358753958</v>
+        <v>939682.9358753986</v>
       </c>
       <c r="C3" t="n">
-        <v>172764.3597898954</v>
+        <v>172764.3597898926</v>
       </c>
       <c r="D3" t="n">
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>500888.8677457506</v>
+        <v>500888.8677457505</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26387,13 +26387,13 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>169414.0168260481</v>
+        <v>169414.016826048</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>19427.71799363176</v>
+        <v>19427.71799363177</v>
       </c>
       <c r="M3" t="n">
         <v>130884.4569042352</v>
@@ -26405,7 +26405,7 @@
         <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>4.547473508864641e-11</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4">
@@ -26415,7 +26415,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>77576.42687802273</v>
+        <v>77576.42687802232</v>
       </c>
       <c r="C4" t="n">
         <v>129066.7547252479</v>
@@ -26424,37 +26424,37 @@
         <v>129066.754725248</v>
       </c>
       <c r="E4" t="n">
-        <v>6287.480531695026</v>
+        <v>6287.480531695051</v>
       </c>
       <c r="F4" t="n">
-        <v>6287.480531695031</v>
+        <v>6287.480531695052</v>
       </c>
       <c r="G4" t="n">
         <v>6287.480531695051</v>
       </c>
       <c r="H4" t="n">
-        <v>6287.480531695065</v>
+        <v>6287.480531695092</v>
       </c>
       <c r="I4" t="n">
-        <v>6287.480531695062</v>
+        <v>6287.480531695052</v>
       </c>
       <c r="J4" t="n">
         <v>6287.480531695051</v>
       </c>
       <c r="K4" t="n">
-        <v>6287.480531695081</v>
+        <v>6287.480531695056</v>
       </c>
       <c r="L4" t="n">
-        <v>14278.3397947885</v>
+        <v>14278.33979478852</v>
       </c>
       <c r="M4" t="n">
-        <v>14278.33979478851</v>
+        <v>14278.33979478854</v>
       </c>
       <c r="N4" t="n">
-        <v>14278.33979478854</v>
+        <v>14278.33979478852</v>
       </c>
       <c r="O4" t="n">
-        <v>14278.33979478851</v>
+        <v>14278.33979478855</v>
       </c>
       <c r="P4" t="n">
         <v>14278.33979478853</v>
@@ -26467,7 +26467,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>89345.07489699085</v>
+        <v>89345.0748969909</v>
       </c>
       <c r="C5" t="n">
         <v>93481.0893615096</v>
@@ -26519,49 +26519,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-920427.0826666553</v>
+        <v>-920787.1656823752</v>
       </c>
       <c r="C6" t="n">
-        <v>-169525.717163975</v>
+        <v>-169525.7171639721</v>
       </c>
       <c r="D6" t="n">
-        <v>3238.642625920387</v>
+        <v>3238.642625920416</v>
       </c>
       <c r="E6" t="n">
-        <v>-386333.5631866012</v>
+        <v>-386368.3011120367</v>
       </c>
       <c r="F6" t="n">
-        <v>114555.3045591494</v>
+        <v>114520.5666337138</v>
       </c>
       <c r="G6" t="n">
-        <v>114555.3045591495</v>
+        <v>114520.5666337138</v>
       </c>
       <c r="H6" t="n">
-        <v>114555.3045591496</v>
+        <v>114520.5666337138</v>
       </c>
       <c r="I6" t="n">
-        <v>114555.3045591495</v>
+        <v>114520.5666337138</v>
       </c>
       <c r="J6" t="n">
-        <v>-54858.71226689854</v>
+        <v>-54893.45019233423</v>
       </c>
       <c r="K6" t="n">
-        <v>114555.3045591495</v>
+        <v>114520.5666337138</v>
       </c>
       <c r="L6" t="n">
-        <v>88916.31307034247</v>
+        <v>88916.31307034235</v>
       </c>
       <c r="M6" t="n">
-        <v>-22540.42584026107</v>
+        <v>-22540.42584026113</v>
       </c>
       <c r="N6" t="n">
+        <v>108344.0310639742</v>
+      </c>
+      <c r="O6" t="n">
+        <v>108344.031063974</v>
+      </c>
+      <c r="P6" t="n">
         <v>108344.0310639741</v>
-      </c>
-      <c r="O6" t="n">
-        <v>108344.0310639742</v>
-      </c>
-      <c r="P6" t="n">
-        <v>108344.031063974</v>
       </c>
     </row>
   </sheetData>
@@ -26713,16 +26713,16 @@
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="M2" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="N2" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="O2" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="P2" t="n">
         <v>24.28464749203975</v>
@@ -26735,7 +26735,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>749.9809564976077</v>
+        <v>749.9809564976108</v>
       </c>
       <c r="C3" t="n">
         <v>939.7063906498448</v>
@@ -26787,13 +26787,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>647.4981915352465</v>
+        <v>647.4981915352464</v>
       </c>
       <c r="C4" t="n">
-        <v>647.4981915352465</v>
+        <v>647.4981915352464</v>
       </c>
       <c r="D4" t="n">
-        <v>647.4981915352465</v>
+        <v>647.4981915352464</v>
       </c>
       <c r="E4" t="n">
         <v>1172.708288099648</v>
@@ -26935,7 +26935,7 @@
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="M2" t="n">
         <v>0</v>
@@ -26947,7 +26947,7 @@
         <v>0</v>
       </c>
       <c r="P2" t="n">
-        <v>5.684341886080801e-14</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -26957,16 +26957,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>749.9809564976077</v>
+        <v>749.9809564976108</v>
       </c>
       <c r="C3" t="n">
-        <v>189.7254341522371</v>
+        <v>189.725434152234</v>
       </c>
       <c r="D3" t="n">
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>428.2691096918292</v>
+        <v>428.2691096918289</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -27009,7 +27009,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>647.4981915352465</v>
+        <v>647.4981915352464</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -27018,7 +27018,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>525.2100965644019</v>
+        <v>525.210096564402</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27033,7 +27033,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>647.4981915352465</v>
+        <v>647.4981915352464</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27042,7 +27042,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>525.2100965644019</v>
+        <v>525.210096564402</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27255,7 +27255,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>647.4981915352465</v>
+        <v>647.4981915352464</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27264,7 +27264,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>525.2100965644019</v>
+        <v>525.210096564402</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27379,7 +27379,7 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
         <v>0</v>
@@ -27388,10 +27388,10 @@
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>400</v>
+        <v>154.6080290307304</v>
       </c>
       <c r="G2" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -27427,7 +27427,7 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>140.3157839734243</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
         <v>0</v>
@@ -27439,7 +27439,7 @@
         <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
         <v>0</v>
@@ -27537,7 +27537,7 @@
         <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>50.39658172992105</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
@@ -27597,7 +27597,7 @@
         <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
         <v>0</v>
@@ -27616,13 +27616,13 @@
         <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>381.9303700722618</v>
+        <v>362.4587234897216</v>
       </c>
       <c r="F5" t="n">
         <v>400</v>
@@ -27667,7 +27667,7 @@
         <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>206.5589059457607</v>
       </c>
       <c r="U5" t="n">
         <v>0</v>
@@ -27676,13 +27676,13 @@
         <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>202.610233344996</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
         <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="6">
@@ -27771,19 +27771,19 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>46.26845056038894</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
         <v>166.2964268507295</v>
@@ -27819,10 +27819,10 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>60.9289800422413</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>194.4851693340911</v>
+        <v>0</v>
       </c>
       <c r="T7" t="n">
         <v>0</v>
@@ -27831,7 +27831,7 @@
         <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W7" t="n">
         <v>0</v>
@@ -27853,25 +27853,25 @@
         <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
-        <v>193.6344626618386</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G8" t="n">
         <v>0</v>
       </c>
       <c r="H8" t="n">
-        <v>300.7862872484598</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>64.83556544767967</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27904,7 +27904,7 @@
         <v>122.935408774453</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>206.5589059457607</v>
       </c>
       <c r="U8" t="n">
         <v>0</v>
@@ -27913,10 +27913,10 @@
         <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>369.731100678469</v>
+        <v>306.396587037092</v>
       </c>
       <c r="Y8" t="n">
         <v>386.2379386560536</v>
@@ -28008,25 +28008,25 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
         <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>147.161060211447</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
         <v>0</v>
@@ -28056,7 +28056,7 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>101.1001486205444</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
         <v>194.4851693340911</v>
@@ -28065,19 +28065,19 @@
         <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>65.59503247469542</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
-        <v>218.5846533520948</v>
+        <v>62.89149114497212</v>
       </c>
     </row>
     <row r="11">
@@ -28381,7 +28381,7 @@
         <v>0</v>
       </c>
       <c r="U14" t="n">
-        <v>0</v>
+        <v>2.557953848736361e-13</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -28798,7 +28798,7 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>2.842170943040401e-13</v>
+        <v>0</v>
       </c>
       <c r="C20" t="n">
         <v>0</v>
@@ -28867,7 +28867,7 @@
         <v>0</v>
       </c>
       <c r="Y20" t="n">
-        <v>0</v>
+        <v>9.003997547551989e-13</v>
       </c>
     </row>
     <row r="21">
@@ -29575,7 +29575,7 @@
         <v>0</v>
       </c>
       <c r="X29" t="n">
-        <v>4.547473508864641e-13</v>
+        <v>0</v>
       </c>
       <c r="Y29" t="n">
         <v>0</v>
@@ -29904,76 +29904,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="C34" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="D34" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="E34" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="F34" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="G34" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="H34" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="I34" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="J34" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="K34" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="L34" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="M34" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="N34" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="O34" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="P34" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="Q34" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="R34" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="S34" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="T34" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="U34" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="V34" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="W34" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="X34" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="Y34" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203971</v>
       </c>
     </row>
     <row r="35">
@@ -29986,7 +29986,7 @@
         <v>0</v>
       </c>
       <c r="C35" t="n">
-        <v>0</v>
+        <v>4.547473508864641e-13</v>
       </c>
       <c r="D35" t="n">
         <v>0</v>
@@ -30141,76 +30141,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="C37" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="D37" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="E37" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="F37" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="G37" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="H37" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="I37" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="J37" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="K37" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="L37" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="M37" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="N37" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="O37" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="P37" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="Q37" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="R37" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="S37" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="T37" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="U37" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="V37" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="W37" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="X37" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="Y37" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203971</v>
       </c>
     </row>
     <row r="38">
@@ -30238,7 +30238,7 @@
         <v>0</v>
       </c>
       <c r="H38" t="n">
-        <v>5.115907697472721e-13</v>
+        <v>0</v>
       </c>
       <c r="I38" t="n">
         <v>0</v>
@@ -30378,76 +30378,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="C40" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="D40" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="E40" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="F40" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="G40" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="H40" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="I40" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="J40" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="K40" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="L40" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="M40" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="N40" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="O40" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="P40" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="Q40" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="R40" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="S40" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="T40" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="U40" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="V40" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="W40" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="X40" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="Y40" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203971</v>
       </c>
     </row>
     <row r="41">
@@ -30526,7 +30526,7 @@
         <v>0</v>
       </c>
       <c r="Y41" t="n">
-        <v>0</v>
+        <v>4.547473508864641e-13</v>
       </c>
     </row>
     <row r="42">
@@ -30615,76 +30615,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="C43" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="D43" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="E43" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="F43" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="G43" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="H43" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="I43" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="J43" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="K43" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="L43" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="M43" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="N43" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="O43" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="P43" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="Q43" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="R43" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="S43" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="T43" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="U43" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="V43" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="W43" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="X43" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="Y43" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203971</v>
       </c>
     </row>
     <row r="44">
@@ -31039,49 +31039,49 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>3.014998820090883</v>
+        <v>3.014998820090895</v>
       </c>
       <c r="H2" t="n">
-        <v>30.87735666625576</v>
+        <v>30.87735666625589</v>
       </c>
       <c r="I2" t="n">
-        <v>116.2357420115539</v>
+        <v>116.2357420115544</v>
       </c>
       <c r="J2" t="n">
-        <v>255.8942561066888</v>
+        <v>255.8942561066899</v>
       </c>
       <c r="K2" t="n">
-        <v>383.519156161136</v>
+        <v>383.5191561611376</v>
       </c>
       <c r="L2" t="n">
-        <v>475.7894263014924</v>
+        <v>475.7894263014944</v>
       </c>
       <c r="M2" t="n">
-        <v>529.4074115682837</v>
+        <v>529.4074115682859</v>
       </c>
       <c r="N2" t="n">
-        <v>537.9737769658669</v>
+        <v>537.9737769658691</v>
       </c>
       <c r="O2" t="n">
-        <v>507.9933824485882</v>
+        <v>507.9933824485902</v>
       </c>
       <c r="P2" t="n">
-        <v>433.5605990775944</v>
+        <v>433.5605990775962</v>
       </c>
       <c r="Q2" t="n">
-        <v>325.5859538330896</v>
+        <v>325.5859538330909</v>
       </c>
       <c r="R2" t="n">
-        <v>189.3909196325341</v>
+        <v>189.3909196325349</v>
       </c>
       <c r="S2" t="n">
-        <v>68.70428561282107</v>
+        <v>68.70428561282135</v>
       </c>
       <c r="T2" t="n">
-        <v>13.19815733494785</v>
+        <v>13.1981573349479</v>
       </c>
       <c r="U2" t="n">
-        <v>0.2411999056072706</v>
+        <v>0.2411999056072716</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
@@ -31118,49 +31118,49 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>1.6131665856741</v>
+        <v>1.613166585674106</v>
       </c>
       <c r="H3" t="n">
-        <v>15.57979307743144</v>
+        <v>15.5797930774315</v>
       </c>
       <c r="I3" t="n">
-        <v>55.54104253307757</v>
+        <v>55.54104253307779</v>
       </c>
       <c r="J3" t="n">
-        <v>152.4088658859903</v>
+        <v>152.4088658859909</v>
       </c>
       <c r="K3" t="n">
-        <v>260.491027126155</v>
+        <v>260.491027126156</v>
       </c>
       <c r="L3" t="n">
-        <v>350.2623325605101</v>
+        <v>350.2623325605116</v>
       </c>
       <c r="M3" t="n">
-        <v>408.7396212911962</v>
+        <v>408.7396212911979</v>
       </c>
       <c r="N3" t="n">
-        <v>419.5577428240721</v>
+        <v>419.5577428240738</v>
       </c>
       <c r="O3" t="n">
-        <v>383.8133674257144</v>
+        <v>383.813367425716</v>
       </c>
       <c r="P3" t="n">
-        <v>308.0440649433287</v>
+        <v>308.04406494333</v>
       </c>
       <c r="Q3" t="n">
-        <v>205.9192996028904</v>
+        <v>205.9192996028912</v>
       </c>
       <c r="R3" t="n">
-        <v>100.1578341526428</v>
+        <v>100.1578341526432</v>
       </c>
       <c r="S3" t="n">
-        <v>29.96386179969214</v>
+        <v>29.96386179969226</v>
       </c>
       <c r="T3" t="n">
-        <v>6.502193386993408</v>
+        <v>6.502193386993435</v>
       </c>
       <c r="U3" t="n">
-        <v>0.106129380636454</v>
+        <v>0.1061293806364544</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -31197,49 +31197,49 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>1.352424675651424</v>
+        <v>1.352424675651429</v>
       </c>
       <c r="H4" t="n">
-        <v>12.02428484351903</v>
+        <v>12.02428484351908</v>
       </c>
       <c r="I4" t="n">
-        <v>40.67109842777192</v>
+        <v>40.67109842777208</v>
       </c>
       <c r="J4" t="n">
-        <v>95.61642456855564</v>
+        <v>95.61642456855604</v>
       </c>
       <c r="K4" t="n">
-        <v>157.1271577711381</v>
+        <v>157.1271577711387</v>
       </c>
       <c r="L4" t="n">
-        <v>201.0686649600308</v>
+        <v>201.0686649600316</v>
       </c>
       <c r="M4" t="n">
-        <v>211.9987152932499</v>
+        <v>211.9987152932508</v>
       </c>
       <c r="N4" t="n">
-        <v>206.9578596840039</v>
+        <v>206.9578596840047</v>
       </c>
       <c r="O4" t="n">
-        <v>191.1590805184395</v>
+        <v>191.1590805184402</v>
       </c>
       <c r="P4" t="n">
-        <v>163.5696171351503</v>
+        <v>163.569617135151</v>
       </c>
       <c r="Q4" t="n">
-        <v>113.2471244311388</v>
+        <v>113.2471244311392</v>
       </c>
       <c r="R4" t="n">
-        <v>60.80993132519945</v>
+        <v>60.8099313251997</v>
       </c>
       <c r="S4" t="n">
-        <v>23.56907366567071</v>
+        <v>23.56907366567081</v>
       </c>
       <c r="T4" t="n">
-        <v>5.778541795965173</v>
+        <v>5.778541795965196</v>
       </c>
       <c r="U4" t="n">
-        <v>0.07376861867189592</v>
+        <v>0.07376861867189623</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -31750,7 +31750,7 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H11" t="n">
         <v>56.32071997135341</v>
@@ -31762,31 +31762,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K11" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L11" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M11" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N11" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O11" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P11" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q11" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R11" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S11" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T11" t="n">
         <v>24.07361910651528</v>
@@ -31829,49 +31829,49 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H12" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I12" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J12" t="n">
-        <v>216.8572963387063</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K12" t="n">
         <v>137.841438974359</v>
       </c>
       <c r="L12" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M12" t="n">
-        <v>142.1340339220183</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N12" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O12" t="n">
-        <v>700.0808204437244</v>
+        <v>188.4731159523455</v>
       </c>
       <c r="P12" t="n">
-        <v>561.8765786214699</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q12" t="n">
-        <v>375.5996128485291</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R12" t="n">
         <v>182.6892564418561</v>
       </c>
       <c r="S12" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T12" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U12" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -31911,25 +31911,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H13" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I13" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J13" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K13" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L13" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M13" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N13" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O13" t="n">
         <v>348.6767717920058</v>
@@ -31938,19 +31938,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q13" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R13" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S13" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T13" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U13" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -31987,7 +31987,7 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H14" t="n">
         <v>56.32071997135341</v>
@@ -31999,31 +31999,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K14" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L14" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M14" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N14" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O14" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P14" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q14" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R14" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S14" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T14" t="n">
         <v>24.07361910651528</v>
@@ -32066,10 +32066,10 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H15" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I15" t="n">
         <v>101.3076196007749</v>
@@ -32078,37 +32078,37 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K15" t="n">
-        <v>475.1391886422586</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L15" t="n">
-        <v>240.4469701760385</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M15" t="n">
-        <v>142.1340339220183</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N15" t="n">
-        <v>765.2790490071786</v>
+        <v>528.6300513467554</v>
       </c>
       <c r="O15" t="n">
-        <v>700.0808204437244</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P15" t="n">
-        <v>561.8765786214699</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q15" t="n">
-        <v>375.5996128485291</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R15" t="n">
         <v>182.6892564418561</v>
       </c>
       <c r="S15" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T15" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U15" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -32148,25 +32148,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H16" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I16" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J16" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K16" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L16" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M16" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N16" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O16" t="n">
         <v>348.6767717920058</v>
@@ -32175,19 +32175,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q16" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R16" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S16" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T16" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U16" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32224,7 +32224,7 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H17" t="n">
         <v>56.32071997135341</v>
@@ -32236,31 +32236,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K17" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L17" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M17" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N17" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O17" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P17" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q17" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R17" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S17" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T17" t="n">
         <v>24.07361910651528</v>
@@ -32303,49 +32303,49 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H18" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I18" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J18" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K18" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L18" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M18" t="n">
-        <v>583.1096135868572</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N18" t="n">
-        <v>765.2790490071786</v>
+        <v>191.332301678856</v>
       </c>
       <c r="O18" t="n">
-        <v>700.0808204437244</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P18" t="n">
-        <v>561.8765786214699</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q18" t="n">
-        <v>375.5996128485291</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R18" t="n">
         <v>182.6892564418561</v>
       </c>
       <c r="S18" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T18" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U18" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
@@ -32385,25 +32385,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H19" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I19" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J19" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K19" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L19" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M19" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N19" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O19" t="n">
         <v>348.6767717920058</v>
@@ -32412,19 +32412,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q19" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R19" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S19" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T19" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U19" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32546,10 +32546,10 @@
         <v>28.417755205211</v>
       </c>
       <c r="I21" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J21" t="n">
-        <v>255.6522884173741</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K21" t="n">
         <v>137.841438974359</v>
@@ -32558,7 +32558,7 @@
         <v>638.8832749473072</v>
       </c>
       <c r="M21" t="n">
-        <v>142.1340339220183</v>
+        <v>467.7715423565662</v>
       </c>
       <c r="N21" t="n">
         <v>765.2790490071785</v>
@@ -32570,10 +32570,10 @@
         <v>561.8765786214698</v>
       </c>
       <c r="Q21" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R21" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S21" t="n">
         <v>54.65449286742438</v>
@@ -32786,16 +32786,16 @@
         <v>99.52238</v>
       </c>
       <c r="J24" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K24" t="n">
         <v>137.841438974359</v>
       </c>
       <c r="L24" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M24" t="n">
-        <v>734.2678383622665</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N24" t="n">
         <v>765.2790490071785</v>
@@ -32807,10 +32807,10 @@
         <v>561.8765786214698</v>
       </c>
       <c r="Q24" t="n">
-        <v>375.599612848529</v>
+        <v>353.2560498238277</v>
       </c>
       <c r="R24" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S24" t="n">
         <v>54.65449286742438</v>
@@ -33023,31 +33023,31 @@
         <v>99.52238</v>
       </c>
       <c r="J27" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K27" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L27" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M27" t="n">
-        <v>734.2678383622665</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N27" t="n">
-        <v>765.2790490071785</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O27" t="n">
         <v>700.0808204437243</v>
       </c>
       <c r="P27" t="n">
-        <v>561.8765786214698</v>
+        <v>232.75998908852</v>
       </c>
       <c r="Q27" t="n">
         <v>375.599612848529</v>
       </c>
       <c r="R27" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S27" t="n">
         <v>54.65449286742438</v>
@@ -33263,7 +33263,7 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K30" t="n">
-        <v>475.1391886422585</v>
+        <v>146.0225991093089</v>
       </c>
       <c r="L30" t="n">
         <v>638.8832749473072</v>
@@ -33272,16 +33272,16 @@
         <v>745.5466476862121</v>
       </c>
       <c r="N30" t="n">
-        <v>765.2790490071785</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O30" t="n">
-        <v>400.5469039565762</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P30" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q30" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R30" t="n">
         <v>145.679503963964</v>
@@ -33503,22 +33503,22 @@
         <v>475.1391886422585</v>
       </c>
       <c r="L33" t="n">
-        <v>638.8832749473072</v>
+        <v>279.2419622547062</v>
       </c>
       <c r="M33" t="n">
-        <v>745.5466476862121</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N33" t="n">
         <v>765.2790490071785</v>
       </c>
       <c r="O33" t="n">
-        <v>400.5469039565762</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P33" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q33" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R33" t="n">
         <v>145.679503963964</v>
@@ -33655,7 +33655,7 @@
         <v>212.0155798067232</v>
       </c>
       <c r="J35" t="n">
-        <v>466.7546155663288</v>
+        <v>466.7546155663283</v>
       </c>
       <c r="K35" t="n">
         <v>699.5441750817575</v>
@@ -33731,22 +33731,22 @@
         <v>28.417755205211</v>
       </c>
       <c r="I36" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J36" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K36" t="n">
         <v>137.841438974359</v>
       </c>
       <c r="L36" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M36" t="n">
-        <v>734.2678383622665</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N36" t="n">
-        <v>765.2790490071785</v>
+        <v>336.3457189021236</v>
       </c>
       <c r="O36" t="n">
         <v>700.0808204437243</v>
@@ -33755,7 +33755,7 @@
         <v>561.8765786214698</v>
       </c>
       <c r="Q36" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R36" t="n">
         <v>182.6892564418561</v>
@@ -33892,7 +33892,7 @@
         <v>212.0155798067232</v>
       </c>
       <c r="J38" t="n">
-        <v>466.7546155663283</v>
+        <v>466.7546155663288</v>
       </c>
       <c r="K38" t="n">
         <v>699.5441750817575</v>
@@ -33968,16 +33968,16 @@
         <v>28.417755205211</v>
       </c>
       <c r="I39" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J39" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K39" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L39" t="n">
-        <v>164.2853229338207</v>
+        <v>194.5189324111251</v>
       </c>
       <c r="M39" t="n">
         <v>745.5466476862121</v>
@@ -33986,7 +33986,7 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O39" t="n">
-        <v>700.0808204437243</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P39" t="n">
         <v>561.8765786214698</v>
@@ -33995,7 +33995,7 @@
         <v>375.599612848529</v>
       </c>
       <c r="R39" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S39" t="n">
         <v>54.65449286742438</v>
@@ -34153,7 +34153,7 @@
         <v>593.8732233669223</v>
       </c>
       <c r="R41" t="n">
-        <v>345.4516222043729</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S41" t="n">
         <v>125.31755462929</v>
@@ -34208,16 +34208,16 @@
         <v>99.52238</v>
       </c>
       <c r="J42" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K42" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L42" t="n">
         <v>138.5543797798742</v>
       </c>
       <c r="M42" t="n">
-        <v>734.2678383622665</v>
+        <v>245.8118639189582</v>
       </c>
       <c r="N42" t="n">
         <v>765.2790490071785</v>
@@ -34442,28 +34442,28 @@
         <v>28.417755205211</v>
       </c>
       <c r="I45" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J45" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K45" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L45" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M45" t="n">
-        <v>734.2678383622665</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N45" t="n">
-        <v>765.2790490071785</v>
+        <v>191.332301678856</v>
       </c>
       <c r="O45" t="n">
         <v>700.0808204437243</v>
       </c>
       <c r="P45" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q45" t="n">
         <v>375.599612848529</v>
@@ -34696,31 +34696,31 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>74.84835158000254</v>
+        <v>173.8199814934675</v>
       </c>
       <c r="K2" t="n">
-        <v>163.4293051161554</v>
+        <v>163.429305116157</v>
       </c>
       <c r="L2" t="n">
-        <v>647.4981915352465</v>
+        <v>647.4981915352464</v>
       </c>
       <c r="M2" t="n">
-        <v>299.061178341011</v>
+        <v>647.4981915352464</v>
       </c>
       <c r="N2" t="n">
-        <v>308.560713369276</v>
+        <v>308.5607133692782</v>
       </c>
       <c r="O2" t="n">
-        <v>647.4981915352465</v>
+        <v>277.8951710269035</v>
       </c>
       <c r="P2" t="n">
-        <v>319.6550276130745</v>
+        <v>202.3276033223266</v>
       </c>
       <c r="Q2" t="n">
-        <v>103.2802639586401</v>
+        <v>103.2802639586414</v>
       </c>
       <c r="R2" t="n">
-        <v>0</v>
+        <v>39.52180169138521</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -34775,31 +34775,31 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>25.57123921932359</v>
+        <v>25.57123921932421</v>
       </c>
       <c r="K3" t="n">
-        <v>387.1148251643746</v>
+        <v>387.1148251643756</v>
       </c>
       <c r="L3" t="n">
-        <v>211.7079527806359</v>
+        <v>211.7079527806374</v>
       </c>
       <c r="M3" t="n">
-        <v>266.6055873691778</v>
+        <v>282.1746519461415</v>
       </c>
       <c r="N3" t="n">
-        <v>647.4981915352465</v>
+        <v>647.4981915352464</v>
       </c>
       <c r="O3" t="n">
-        <v>466.8634752940897</v>
+        <v>241.2171229812715</v>
       </c>
       <c r="P3" t="n">
-        <v>492.5324261689357</v>
+        <v>492.5324261689369</v>
       </c>
       <c r="Q3" t="n">
-        <v>65.93752551686885</v>
+        <v>276.0148132527188</v>
       </c>
       <c r="R3" t="n">
-        <v>-3.126388037344441e-13</v>
+        <v>0</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -34854,28 +34854,28 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>2.257244451882869</v>
+        <v>2.257244451883267</v>
       </c>
       <c r="K4" t="n">
-        <v>134.8576659452552</v>
+        <v>134.8576659452559</v>
       </c>
       <c r="L4" t="n">
-        <v>228.6586902203469</v>
+        <v>228.6586902203478</v>
       </c>
       <c r="M4" t="n">
-        <v>251.5825922550905</v>
+        <v>251.5825922550914</v>
       </c>
       <c r="N4" t="n">
-        <v>251.0900320632325</v>
+        <v>251.0900320632333</v>
       </c>
       <c r="O4" t="n">
-        <v>215.7442084324792</v>
+        <v>215.7442084324799</v>
       </c>
       <c r="P4" t="n">
-        <v>160.8481764000438</v>
+        <v>160.8481764000445</v>
       </c>
       <c r="Q4" t="n">
-        <v>27.08508117944437</v>
+        <v>27.08508117944484</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -34948,7 +34948,7 @@
         <v>444.6539134873425</v>
       </c>
       <c r="O5" t="n">
-        <v>406.4041207495858</v>
+        <v>406.4041207495845</v>
       </c>
       <c r="P5" t="n">
         <v>312.0070187510058</v>
@@ -35021,16 +35021,16 @@
         <v>300.3151001174897</v>
       </c>
       <c r="M6" t="n">
-        <v>570.7518035997548</v>
+        <v>370.005948982147</v>
       </c>
       <c r="N6" t="n">
         <v>394.3530922482247</v>
       </c>
       <c r="O6" t="n">
-        <v>647.4981915352465</v>
+        <v>529.7812775129171</v>
       </c>
       <c r="P6" t="n">
-        <v>251.9966948131504</v>
+        <v>570.4594634530876</v>
       </c>
       <c r="Q6" t="n">
         <v>118.0296862297623</v>
@@ -35249,31 +35249,31 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>190.2177045321224</v>
+        <v>64.1266691917136</v>
       </c>
       <c r="K9" t="n">
-        <v>188.5469589931442</v>
+        <v>453.0121960057228</v>
       </c>
       <c r="L9" t="n">
         <v>300.3151001174897</v>
       </c>
       <c r="M9" t="n">
-        <v>410.0470976798437</v>
+        <v>370.005948982147</v>
       </c>
       <c r="N9" t="n">
-        <v>394.3530922482247</v>
+        <v>639.8201026859435</v>
       </c>
       <c r="O9" t="n">
         <v>338.3117987025568</v>
       </c>
       <c r="P9" t="n">
-        <v>570.4594634530876</v>
+        <v>251.9966948131504</v>
       </c>
       <c r="Q9" t="n">
         <v>118.0296862297623</v>
       </c>
       <c r="R9" t="n">
-        <v>25.33729477225506</v>
+        <v>0</v>
       </c>
       <c r="S9" t="n">
         <v>0</v>
@@ -35404,34 +35404,34 @@
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J11" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K11" t="n">
-        <v>479.4543240367756</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L11" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M11" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N11" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O11" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P11" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q11" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R11" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35483,34 +35483,34 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>1.785239600774929</v>
+        <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>90.01966967203961</v>
+        <v>0</v>
       </c>
       <c r="K12" t="n">
         <v>0</v>
       </c>
       <c r="L12" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M12" t="n">
-        <v>0</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N12" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O12" t="n">
-        <v>557.48457599928</v>
+        <v>45.87687150790109</v>
       </c>
       <c r="P12" t="n">
-        <v>427.9021712071396</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q12" t="n">
-        <v>235.6178387625076</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R12" t="n">
-        <v>37.00975247789214</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -35565,22 +35565,22 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K13" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L13" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M13" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N13" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O13" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P13" t="n">
         <v>295.631773306625</v>
@@ -35641,34 +35641,34 @@
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J14" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K14" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L14" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M14" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N14" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O14" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P14" t="n">
-        <v>559.5874541683802</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q14" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R14" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35720,34 +35720,34 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>1.785239600774929</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J15" t="n">
         <v>151.1582247754088</v>
       </c>
       <c r="K15" t="n">
-        <v>337.2977496678996</v>
+        <v>0</v>
       </c>
       <c r="L15" t="n">
-        <v>101.8925903961643</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M15" t="n">
-        <v>0</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N15" t="n">
-        <v>633.9373369238454</v>
+        <v>397.2883392634221</v>
       </c>
       <c r="O15" t="n">
-        <v>557.48457599928</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P15" t="n">
-        <v>427.9021712071396</v>
+        <v>0</v>
       </c>
       <c r="Q15" t="n">
-        <v>235.6178387625076</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R15" t="n">
-        <v>37.00975247789214</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -35802,22 +35802,22 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K16" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L16" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M16" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N16" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O16" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P16" t="n">
         <v>295.631773306625</v>
@@ -35878,34 +35878,34 @@
         <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J17" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K17" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L17" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M17" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N17" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O17" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P17" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q17" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R17" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35957,34 +35957,34 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J18" t="n">
         <v>151.1582247754088</v>
       </c>
       <c r="K18" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L18" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M18" t="n">
-        <v>440.9755796648388</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N18" t="n">
-        <v>633.9373369238454</v>
+        <v>59.99058959552271</v>
       </c>
       <c r="O18" t="n">
-        <v>557.48457599928</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P18" t="n">
-        <v>427.9021712071396</v>
+        <v>0</v>
       </c>
       <c r="Q18" t="n">
-        <v>235.6178387625076</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R18" t="n">
-        <v>37.00975247789214</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -36039,22 +36039,22 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K19" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L19" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M19" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N19" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O19" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P19" t="n">
         <v>295.631773306625</v>
@@ -36194,10 +36194,10 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J21" t="n">
-        <v>128.8146617507074</v>
+        <v>0</v>
       </c>
       <c r="K21" t="n">
         <v>0</v>
@@ -36206,7 +36206,7 @@
         <v>500.328895167433</v>
       </c>
       <c r="M21" t="n">
-        <v>0</v>
+        <v>325.6375084345479</v>
       </c>
       <c r="N21" t="n">
         <v>633.9373369238452</v>
@@ -36218,10 +36218,10 @@
         <v>427.9021712071395</v>
       </c>
       <c r="Q21" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -36358,7 +36358,7 @@
         <v>285.708711039642</v>
       </c>
       <c r="K23" t="n">
-        <v>479.4543240367776</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L23" t="n">
         <v>632.0799921462688</v>
@@ -36434,16 +36434,16 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K24" t="n">
         <v>0</v>
       </c>
       <c r="L24" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M24" t="n">
-        <v>592.1338044402481</v>
+        <v>0</v>
       </c>
       <c r="N24" t="n">
         <v>633.9373369238452</v>
@@ -36455,10 +36455,10 @@
         <v>427.9021712071395</v>
       </c>
       <c r="Q24" t="n">
-        <v>235.6178387625075</v>
+        <v>213.2742757378062</v>
       </c>
       <c r="R24" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -36671,31 +36671,31 @@
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K27" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L27" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M27" t="n">
-        <v>592.1338044402481</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N27" t="n">
-        <v>633.9373369238452</v>
+        <v>0</v>
       </c>
       <c r="O27" t="n">
         <v>557.4845759992799</v>
       </c>
       <c r="P27" t="n">
-        <v>427.9021712071395</v>
+        <v>98.78558167418976</v>
       </c>
       <c r="Q27" t="n">
         <v>235.6178387625075</v>
       </c>
       <c r="R27" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -36838,13 +36838,13 @@
         <v>632.0799921462688</v>
       </c>
       <c r="M29" t="n">
-        <v>735.3001107902952</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N29" t="n">
         <v>751.8584478193516</v>
       </c>
       <c r="O29" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P29" t="n">
         <v>559.5874541683811</v>
@@ -36911,7 +36911,7 @@
         <v>151.1582247754088</v>
       </c>
       <c r="K30" t="n">
-        <v>337.2977496678996</v>
+        <v>8.181160134949948</v>
       </c>
       <c r="L30" t="n">
         <v>500.328895167433</v>
@@ -36920,16 +36920,16 @@
         <v>603.4126137641938</v>
       </c>
       <c r="N30" t="n">
-        <v>633.9373369238452</v>
+        <v>0</v>
       </c>
       <c r="O30" t="n">
-        <v>257.9506595121318</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P30" t="n">
-        <v>0</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q30" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R30" t="n">
         <v>0</v>
@@ -37151,22 +37151,22 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L33" t="n">
-        <v>500.328895167433</v>
+        <v>140.6875824748321</v>
       </c>
       <c r="M33" t="n">
-        <v>603.4126137641938</v>
+        <v>0</v>
       </c>
       <c r="N33" t="n">
         <v>633.9373369238452</v>
       </c>
       <c r="O33" t="n">
-        <v>257.9506595121318</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P33" t="n">
-        <v>0</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q33" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R33" t="n">
         <v>0</v>
@@ -37227,10 +37227,10 @@
         <v>105.3311307549931</v>
       </c>
       <c r="K34" t="n">
-        <v>288.6172359016746</v>
+        <v>288.6172359016747</v>
       </c>
       <c r="L34" t="n">
-        <v>418.6266618111711</v>
+        <v>418.6266618111712</v>
       </c>
       <c r="M34" t="n">
         <v>450.5570744930848</v>
@@ -37303,7 +37303,7 @@
         <v>1.539690236317256</v>
       </c>
       <c r="J35" t="n">
-        <v>285.7087110396425</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K35" t="n">
         <v>479.454324036777</v>
@@ -37379,22 +37379,22 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J36" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K36" t="n">
         <v>0</v>
       </c>
       <c r="L36" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M36" t="n">
-        <v>592.1338044402481</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N36" t="n">
-        <v>633.9373369238452</v>
+        <v>205.0040068187903</v>
       </c>
       <c r="O36" t="n">
         <v>557.4845759992799</v>
@@ -37403,7 +37403,7 @@
         <v>427.9021712071395</v>
       </c>
       <c r="Q36" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R36" t="n">
         <v>37.00975247789211</v>
@@ -37464,10 +37464,10 @@
         <v>105.3311307549931</v>
       </c>
       <c r="K37" t="n">
-        <v>288.6172359016746</v>
+        <v>288.6172359016747</v>
       </c>
       <c r="L37" t="n">
-        <v>418.6266618111711</v>
+        <v>418.6266618111712</v>
       </c>
       <c r="M37" t="n">
         <v>450.5570744930848</v>
@@ -37540,7 +37540,7 @@
         <v>1.539690236317256</v>
       </c>
       <c r="J38" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396425</v>
       </c>
       <c r="K38" t="n">
         <v>479.454324036777</v>
@@ -37616,16 +37616,16 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J39" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K39" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L39" t="n">
-        <v>25.73094315394657</v>
+        <v>55.9645526312509</v>
       </c>
       <c r="M39" t="n">
         <v>603.4126137641938</v>
@@ -37634,7 +37634,7 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O39" t="n">
-        <v>557.4845759992799</v>
+        <v>0</v>
       </c>
       <c r="P39" t="n">
         <v>427.9021712071395</v>
@@ -37643,7 +37643,7 @@
         <v>235.6178387625075</v>
       </c>
       <c r="R39" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -37701,10 +37701,10 @@
         <v>105.3311307549931</v>
       </c>
       <c r="K40" t="n">
-        <v>288.6172359016746</v>
+        <v>288.6172359016747</v>
       </c>
       <c r="L40" t="n">
-        <v>418.6266618111711</v>
+        <v>418.6266618111712</v>
       </c>
       <c r="M40" t="n">
         <v>450.5570744930848</v>
@@ -37795,13 +37795,13 @@
         <v>696.488651224316</v>
       </c>
       <c r="P41" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683816</v>
       </c>
       <c r="Q41" t="n">
         <v>371.5675334924728</v>
       </c>
       <c r="R41" t="n">
-        <v>129.8660843902408</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37856,16 +37856,16 @@
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K42" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L42" t="n">
         <v>0</v>
       </c>
       <c r="M42" t="n">
-        <v>592.1338044402481</v>
+        <v>103.6778299969399</v>
       </c>
       <c r="N42" t="n">
         <v>633.9373369238452</v>
@@ -37935,13 +37935,13 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>105.331130754993</v>
+        <v>105.3311307549931</v>
       </c>
       <c r="K43" t="n">
-        <v>288.6172359016746</v>
+        <v>288.6172359016747</v>
       </c>
       <c r="L43" t="n">
-        <v>418.6266618111711</v>
+        <v>418.6266618111712</v>
       </c>
       <c r="M43" t="n">
         <v>450.5570744930848</v>
@@ -38090,28 +38090,28 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J45" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K45" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L45" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M45" t="n">
-        <v>592.1338044402481</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N45" t="n">
-        <v>633.9373369238452</v>
+        <v>59.99058959552271</v>
       </c>
       <c r="O45" t="n">
         <v>557.4845759992799</v>
       </c>
       <c r="P45" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q45" t="n">
         <v>235.6178387625075</v>
